--- a/Bank/针灸/Bank_经络部分.xlsx
+++ b/Bank/针灸/Bank_经络部分.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="831">
   <si>
     <t>经络学说的记载最早见于</t>
   </si>
@@ -1306,6 +1306,1212 @@
   </si>
   <si>
     <t>“其支者：从膻中，上出缺盆，上项，系耳后，直上出耳上角，以屈下颊至䪼”的经脉是</t>
+  </si>
+  <si>
+    <t>经络学形成的依据主要包括</t>
+  </si>
+  <si>
+    <t>针灸等剌激的感应和传导的观察</t>
+  </si>
+  <si>
+    <t>脸穴功效的总结</t>
+  </si>
+  <si>
+    <t>体表病理现象的推理</t>
+  </si>
+  <si>
+    <t>解剖生理知识的启发</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>《帛书》与《灵枢•经脉》相比较</t>
+  </si>
+  <si>
+    <t>只提及十一条脉而无“经”字</t>
+  </si>
+  <si>
+    <t>均以手足、阴阳命名</t>
+  </si>
+  <si>
+    <t>只提及“灸”而无“针”</t>
+  </si>
+  <si>
+    <t>脉与脉之间均有互相衔接及全身的循环流注</t>
+  </si>
+  <si>
+    <t>十二经脉的名称主要与哪些方面有关</t>
+  </si>
+  <si>
+    <t>手足</t>
+  </si>
+  <si>
+    <t>阴阳</t>
+  </si>
+  <si>
+    <t>阴阳消长</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>下列哪些经脉的名称是错误的</t>
+  </si>
+  <si>
+    <t>手厥阴三焦经</t>
+  </si>
+  <si>
+    <t>手少阴心包经</t>
+  </si>
+  <si>
+    <t>足少阴脾经</t>
+  </si>
+  <si>
+    <t>下面有关十二经脉表里属络关系错误的是</t>
+  </si>
+  <si>
+    <t>阴经属腑主里</t>
+  </si>
+  <si>
+    <t>下面有关十二经脉循行走向正确的是</t>
+  </si>
+  <si>
+    <t>手三阳经从胸走手</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>下列经脉排列中没有按照十二经脉气血流注次序的是</t>
+  </si>
+  <si>
+    <t>膀胱、肝、肺</t>
+  </si>
+  <si>
+    <t>小肠、胆、肾</t>
+  </si>
+  <si>
+    <t>大肠、胃、脾</t>
+  </si>
+  <si>
+    <t>下列哪些不属于“奇经八脉”的内容</t>
+  </si>
+  <si>
+    <t>BCDE</t>
+  </si>
+  <si>
+    <t>有关“奇经八脉”的叙述错误的是</t>
+  </si>
+  <si>
+    <t>均起于胞中</t>
+  </si>
+  <si>
+    <t>无所属脸穴</t>
+  </si>
+  <si>
+    <t>均左右对称地分布于身体两侧</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>与足少阴肾经相并上行的经脉有</t>
+  </si>
+  <si>
+    <t>调节肢体运动，司眼脸开合的经脉是</t>
+  </si>
+  <si>
+    <t>目下</t>
+  </si>
+  <si>
+    <t>目内眦</t>
+  </si>
+  <si>
+    <t>目外眦</t>
+  </si>
+  <si>
+    <t>地仓穴</t>
+  </si>
+  <si>
+    <t>阴、阳蹻脉均经过的部位是</t>
+  </si>
+  <si>
+    <t>在体内表里脏腑之间，通过下列哪些经络系统加强了联系</t>
+  </si>
+  <si>
+    <t>十二正经</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>经别与络脉的区别或共同点正确的是</t>
+  </si>
+  <si>
+    <t>都是在四肢肘膝关节以下的正经分出</t>
+  </si>
+  <si>
+    <t>都是加强表里两经之间的联系</t>
+  </si>
+  <si>
+    <t>经别侧重加强表里经在头面及脏腑之间的联系；络脉主要加强表里两经在四肢的联系</t>
+  </si>
+  <si>
+    <t>都无所属穴位</t>
+  </si>
+  <si>
+    <t>下列经别循行从腘窝部分出的是</t>
+  </si>
+  <si>
+    <t>足太阴经别</t>
+  </si>
+  <si>
+    <t>足少阴经别</t>
+  </si>
+  <si>
+    <t>足厥阴经别</t>
+  </si>
+  <si>
+    <t>足太阳经别</t>
+  </si>
+  <si>
+    <t>足少阳经别</t>
+  </si>
+  <si>
+    <t>下列经别从下肢分出的是</t>
+  </si>
+  <si>
+    <t>经筋有刚柔之分，刚筋分布于</t>
+  </si>
+  <si>
+    <t>四肢内侧</t>
+  </si>
+  <si>
+    <t>胸腹</t>
+  </si>
+  <si>
+    <t>四肢外侧</t>
+  </si>
+  <si>
+    <t>循股内上行结于阴器的经筋有</t>
+  </si>
+  <si>
+    <t>足少阴经筋</t>
+  </si>
+  <si>
+    <t>足少阳经筋</t>
+  </si>
+  <si>
+    <t>十二皮部是指</t>
+  </si>
+  <si>
+    <t>十二经脉功能活动反映于体表的部位</t>
+  </si>
+  <si>
+    <t>络脉之气散布之所在</t>
+  </si>
+  <si>
+    <t>人体皮表的十二个分区</t>
+  </si>
+  <si>
+    <t>十二经脉最浅表的部分</t>
+  </si>
+  <si>
+    <t>下列疗法属于皮部理论的临床应用是</t>
+  </si>
+  <si>
+    <t>药物敷贴</t>
+  </si>
+  <si>
+    <t>梅花针叩刺</t>
+  </si>
+  <si>
+    <t>灸法</t>
+  </si>
+  <si>
+    <t>埋线</t>
+  </si>
+  <si>
+    <t>根据“根结”理论，结在</t>
+  </si>
+  <si>
+    <t>四肢末端井穴</t>
+  </si>
+  <si>
+    <t>躯干</t>
+  </si>
+  <si>
+    <t>头部</t>
+  </si>
+  <si>
+    <t>“四根三结”是指</t>
+  </si>
+  <si>
+    <t>项背腰三部</t>
+  </si>
+  <si>
+    <t>头胸腹三部</t>
+  </si>
+  <si>
+    <t>面胸背三部</t>
+  </si>
+  <si>
+    <t>十二皮部的主要生理功能有</t>
+  </si>
+  <si>
+    <t>约束骨骼</t>
+  </si>
+  <si>
+    <t>保护机体，抗御外邪</t>
+  </si>
+  <si>
+    <t>反映病证</t>
+  </si>
+  <si>
+    <t>维持人体正常运动功能</t>
+  </si>
+  <si>
+    <t>调理气血</t>
+  </si>
+  <si>
+    <t>奇经八脉的生理功能有</t>
+  </si>
+  <si>
+    <t>沟通十二经脉之间的联系</t>
+  </si>
+  <si>
+    <t>调节十二经气血</t>
+  </si>
+  <si>
+    <t>统摄有关经脉气血</t>
+  </si>
+  <si>
+    <t>协调阴阳</t>
+  </si>
+  <si>
+    <t>十二经筋的生理功能有</t>
+  </si>
+  <si>
+    <t>抗御外邪，保卫机体</t>
+  </si>
+  <si>
+    <t>屈伸关节</t>
+  </si>
+  <si>
+    <t>十二经别的生理功能有</t>
+  </si>
+  <si>
+    <t>离入出合</t>
+  </si>
+  <si>
+    <t>加强了所属络的脏腑在体腔深部的联系</t>
+  </si>
+  <si>
+    <t>补充了十二经脉在体内外循行的不足</t>
+  </si>
+  <si>
+    <t>经络的主要生理功能有</t>
+  </si>
+  <si>
+    <t>联络脏腑，沟通内外</t>
+  </si>
+  <si>
+    <t>运行气血，濡养周身</t>
+  </si>
+  <si>
+    <t>“四海”是指</t>
+  </si>
+  <si>
+    <t>髓海</t>
+  </si>
+  <si>
+    <t>血海</t>
+  </si>
+  <si>
+    <t>气海</t>
+  </si>
+  <si>
+    <t>十二经脉之海</t>
+  </si>
+  <si>
+    <t>“经脉者，所以决死生”是因其具有</t>
+  </si>
+  <si>
+    <t>循经感传作用</t>
+  </si>
+  <si>
+    <t>运行气血作用</t>
+  </si>
+  <si>
+    <t>联系人体内外作用</t>
+  </si>
+  <si>
+    <t>抗御病邪作用</t>
+  </si>
+  <si>
+    <t>气血周流循行并输布弥散于全身要靠</t>
+  </si>
+  <si>
+    <t>上、中、下三焦</t>
+  </si>
+  <si>
+    <t>宗气</t>
+  </si>
+  <si>
+    <t>经络</t>
+  </si>
+  <si>
+    <t>原气</t>
+  </si>
+  <si>
+    <t>经络的病理变化有</t>
+  </si>
+  <si>
+    <t>防卫机体</t>
+  </si>
+  <si>
+    <t>传注病邪</t>
+  </si>
+  <si>
+    <t>扶正祛邪</t>
+  </si>
+  <si>
+    <t>反映证候</t>
+  </si>
+  <si>
+    <t>经脉者，所以处百病、调虚实是由于经脉</t>
+  </si>
+  <si>
+    <t>循行分布，纵横交错</t>
+  </si>
+  <si>
+    <t>抗御病邪，反映证候</t>
+  </si>
+  <si>
+    <t>出入表里，通达上下</t>
+  </si>
+  <si>
+    <t>传导感应，补虚泻实</t>
+  </si>
+  <si>
+    <t>ABCE</t>
+  </si>
+  <si>
+    <t>秦汉时期对经络学说发展做出贡献的著作是</t>
+  </si>
+  <si>
+    <t>《素问》</t>
+  </si>
+  <si>
+    <t>《黄帝明堂经》</t>
+  </si>
+  <si>
+    <t>描述经络感应现象的是</t>
+  </si>
+  <si>
+    <t>针已出，气独行</t>
+  </si>
+  <si>
+    <t>内属于脏腑，外络于肢节</t>
+  </si>
+  <si>
+    <t>刺之要，气至而有效</t>
+  </si>
+  <si>
+    <t>内累隧道，惟返观者能照察之</t>
+  </si>
+  <si>
+    <t>经筋的病候多表现为</t>
+  </si>
+  <si>
+    <t>拘挛</t>
+  </si>
+  <si>
+    <t>强直</t>
+  </si>
+  <si>
+    <t>抽搐</t>
+  </si>
+  <si>
+    <t>弛缓</t>
+  </si>
+  <si>
+    <t>下列经脉与督脉发生交会联系者有</t>
+  </si>
+  <si>
+    <t>十二经脉的交接部位是</t>
+  </si>
+  <si>
+    <t>相表里的阳经与阴经在四肢末端交接</t>
+  </si>
+  <si>
+    <t>同名的阳经在头面部交接</t>
+  </si>
+  <si>
+    <t>阴经与阴经在胸中交接</t>
+  </si>
+  <si>
+    <t>阳经与阳经在颈项部交接</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>络脉与经脉的不同点是</t>
+  </si>
+  <si>
+    <t>循行部位浅，分支细小</t>
+  </si>
+  <si>
+    <t>循行方向是离心的</t>
+  </si>
+  <si>
+    <t>由正经别出而横行，网络周身</t>
+  </si>
+  <si>
+    <t>只行于四末，不走于胸腹</t>
+  </si>
+  <si>
+    <t>经筋与正经的循行不同点是</t>
+  </si>
+  <si>
+    <t>与五脏六腑无直接联系</t>
+  </si>
+  <si>
+    <t>由四末走向头面或躯干</t>
+  </si>
+  <si>
+    <t>在胸腹部一般有布有散</t>
+  </si>
+  <si>
+    <t>在关节部一般有结有聚</t>
+  </si>
+  <si>
+    <t>下列经脉中联系到耳的经脉是</t>
+  </si>
+  <si>
+    <t>三焦经</t>
+  </si>
+  <si>
+    <t>手阳明大肠经循行所过之处有</t>
+  </si>
+  <si>
+    <t>前臂</t>
+  </si>
+  <si>
+    <t>颈部</t>
+  </si>
+  <si>
+    <t>肘部内侧</t>
+  </si>
+  <si>
+    <t>与足少阴肾经发生联系的脏器是</t>
+  </si>
+  <si>
+    <t>肝</t>
+  </si>
+  <si>
+    <t>肺</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>肾</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>经过肺脏的经脉有</t>
+  </si>
+  <si>
+    <t>下列经脉循行过脊的有</t>
+  </si>
+  <si>
+    <t>循行过咽喉的经脉有</t>
+  </si>
+  <si>
+    <t>循行与胃腑发生联系的有</t>
+  </si>
+  <si>
+    <t>足少阳胆经在头部循行经过的部位有</t>
+  </si>
+  <si>
+    <t>目锐眦</t>
+  </si>
+  <si>
+    <t>客主人</t>
+  </si>
+  <si>
+    <t>䪼</t>
+  </si>
+  <si>
+    <t>足厥阴肝经循行所过的部位有</t>
+  </si>
+  <si>
+    <t>喉咙</t>
+  </si>
+  <si>
+    <t>目系</t>
+  </si>
+  <si>
+    <t>颠顶</t>
+  </si>
+  <si>
+    <t>手少阳经所过之处有</t>
+  </si>
+  <si>
+    <t>入耳中</t>
+  </si>
+  <si>
+    <t>人中</t>
+  </si>
+  <si>
+    <t>起于胞中的经脉有</t>
+  </si>
+  <si>
+    <t>任脉的作用有</t>
+  </si>
+  <si>
+    <t>治胎产经带之病</t>
+  </si>
+  <si>
+    <t>心痛</t>
+  </si>
+  <si>
+    <t>主一身之阴气，有妊养作用</t>
+  </si>
+  <si>
+    <t>恶寒发热</t>
+  </si>
+  <si>
+    <t>ABD</t>
+  </si>
+  <si>
+    <t>手太阳小肠经病候有</t>
+  </si>
+  <si>
+    <t>目黄</t>
+  </si>
+  <si>
+    <t>嗌痛</t>
+  </si>
+  <si>
+    <t>耳聋</t>
+  </si>
+  <si>
+    <t>不眠</t>
+  </si>
+  <si>
+    <t>足太阴经病候有</t>
+  </si>
+  <si>
+    <t>黄疸</t>
+  </si>
+  <si>
+    <t>厥冷</t>
+  </si>
+  <si>
+    <t>舌痛</t>
+  </si>
+  <si>
+    <t>暧气</t>
+  </si>
+  <si>
+    <t>督脉经穴可治</t>
+  </si>
+  <si>
+    <t>脊柱疼痛</t>
+  </si>
+  <si>
+    <t>足弱</t>
+  </si>
+  <si>
+    <t>热病</t>
+  </si>
+  <si>
+    <t>神志病</t>
+  </si>
+  <si>
+    <t>下列叙述错误的是</t>
+  </si>
+  <si>
+    <t>任脉终止于颊下</t>
+  </si>
+  <si>
+    <t>膀胱经终止于小趾外侧端</t>
+  </si>
+  <si>
+    <t>阳蹻脉终止于目内眦</t>
+  </si>
+  <si>
+    <t>阴蹻脉终止于目锐眦</t>
+  </si>
+  <si>
+    <t>下列描述有错误的是</t>
+  </si>
+  <si>
+    <t>肺经起于中焦</t>
+  </si>
+  <si>
+    <t>心经起于心系</t>
+  </si>
+  <si>
+    <t>心包经起于心包</t>
+  </si>
+  <si>
+    <t>肾经起于足心</t>
+  </si>
+  <si>
+    <t>手太阴肺经的病候为</t>
+  </si>
+  <si>
+    <t>心悸怔忡</t>
+  </si>
+  <si>
+    <t>掌中热</t>
+  </si>
+  <si>
+    <t>咳喘</t>
+  </si>
+  <si>
+    <t>缺盆痛</t>
+  </si>
+  <si>
+    <t>手阳明经的病候表现是</t>
+  </si>
+  <si>
+    <t>口喝、唇診</t>
+  </si>
+  <si>
+    <t>肩前臑痛</t>
+  </si>
+  <si>
+    <t>齿痛、颈肿</t>
+  </si>
+  <si>
+    <t>目黄、口干、鼽衄</t>
+  </si>
+  <si>
+    <t>足厥阴肝经的主要病候是</t>
+  </si>
+  <si>
+    <t>胁痛、口苦</t>
+  </si>
+  <si>
+    <t>腰痛、嗌干、㿉疝</t>
+  </si>
+  <si>
+    <t>飧泄、遗溺</t>
+  </si>
+  <si>
+    <t>面微有尘、体无泽</t>
+  </si>
+  <si>
+    <t>具有回阳固脱、强壮机体作用的经脉是</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>发生病变会出现“嗌干” 一症的经脉有</t>
+  </si>
+  <si>
+    <t>能治疗目疾的经脉有</t>
+  </si>
+  <si>
+    <t>下列可出现目黄的经脉有</t>
+  </si>
+  <si>
+    <t>小肠经</t>
+  </si>
+  <si>
+    <t>心包经</t>
+  </si>
+  <si>
+    <t>大肠经</t>
+  </si>
+  <si>
+    <t>下列可出现“耳聋”的经脉有</t>
+  </si>
+  <si>
+    <t>能够联系肺脏的经脉有</t>
+  </si>
+  <si>
+    <t>十二经中络心的经脉有</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>交会于中极、关元的经脉有</t>
+  </si>
+  <si>
+    <t>足三阴经循行均经过</t>
+  </si>
+  <si>
+    <t>三阴交</t>
+  </si>
+  <si>
+    <t>中极</t>
+  </si>
+  <si>
+    <t>缺盆</t>
+  </si>
+  <si>
+    <t>大椎</t>
+  </si>
+  <si>
+    <t>“连目系”和“系目系”的经脉有</t>
+  </si>
+  <si>
+    <t>手三阳经循行均经过</t>
+  </si>
+  <si>
+    <t>水沟</t>
+  </si>
+  <si>
+    <t>三阳络</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>BCE</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CDE</t>
+  </si>
+  <si>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>ABDE</t>
+  </si>
+  <si>
+    <t>正经</t>
+  </si>
+  <si>
+    <t>十四经</t>
+  </si>
+  <si>
+    <t>一源三歧</t>
+  </si>
+  <si>
+    <t>十二经之海</t>
+  </si>
+  <si>
+    <t>四街</t>
+  </si>
+  <si>
+    <t>经气</t>
+  </si>
+  <si>
+    <t>循经感传</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>经络学说的形成主要有哪几个方面的依据？</t>
+  </si>
+  <si>
+    <t>请写出经络系统的组成。</t>
+  </si>
+  <si>
+    <t>举例说明十二经脉是如何命名的？</t>
+  </si>
+  <si>
+    <t>十二经脉在体表的分布规律是什么？</t>
+  </si>
+  <si>
+    <t>请写出十二经脉的循行走向与交接规律。</t>
+  </si>
+  <si>
+    <t>奇经八脉有何生理特点与功用？</t>
+  </si>
+  <si>
+    <t>写出十二经脉逐经相传的传注次序。</t>
+  </si>
+  <si>
+    <t>手太阴肺经穴的主治概要如何？</t>
+  </si>
+  <si>
+    <t>按《灵枢•经脉》写出手太阴肺经的原文。</t>
+  </si>
+  <si>
+    <t>按《灵枢•经脉》写出手阳明大肠经的原文。</t>
+  </si>
+  <si>
+    <t>写出手阳明经的起止穴和穴位的总数。</t>
+  </si>
+  <si>
+    <t>试述手阳明大肠经的经穴共同主治哪些循证？</t>
+  </si>
+  <si>
+    <t>足阳明胃经的脸穴主治哪些病证？</t>
+  </si>
+  <si>
+    <t>足太阴脾经的经穴主治哪些病证？</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>足太阴脾经的起止穴名称是什么？穴位的总数有多少？</t>
+  </si>
+  <si>
+    <t>手太阳小肠经的脸穴共同主治什么病证？</t>
+  </si>
+  <si>
+    <t>足太阳膀胱经的经穴主治哪些病证？</t>
+  </si>
+  <si>
+    <t>足太阳膀胱经的起止穴及胸穴总数如何？</t>
+  </si>
+  <si>
+    <t>足少阴肾经的经穴主治哪些病证？</t>
+  </si>
+  <si>
+    <t>按《灵枢•经脉》原文写出足少阴肾经的经脉循行。</t>
+  </si>
+  <si>
+    <t>写出手少阳三焦经的起止穴，本经脈穴的总数是多少？</t>
+  </si>
+  <si>
+    <t>胆经的经脉中耳部的支脉如何循行？</t>
+  </si>
+  <si>
+    <t>足少阳胆经的起止穴及穴位总数如何？</t>
+  </si>
+  <si>
+    <t>按照《灵枢•经脉》原文写出足厥阴肝经经脉循行。</t>
+  </si>
+  <si>
+    <t>足厥阴肝经的脸穴共同主治哪些病证？</t>
+  </si>
+  <si>
+    <t>任脉的起止穴及穴位总数是多少？</t>
+  </si>
+  <si>
+    <t>经络学说是阐述人体经络系统的循行分布、生理功能、病理变化及其与脏腑相互关系的一门学说。</t>
+  </si>
+  <si>
+    <t>与奇经相对，指十二经脉。因十二经脉为经络系统的主体，故称为正经。</t>
+  </si>
+  <si>
+    <t>指别道奇行的8条经脉，包括督脉、任脉、冲脉、带脉、阳维脉、阴维脉、阳蹻脉、阴蹻脉。</t>
+  </si>
+  <si>
+    <t>十二经脉加上奇经八脉中的任督二脉合称“十四经脉”。它们均有一定的循行路线、病候和所属脸穴，是经络中的主体部分。</t>
+  </si>
+  <si>
+    <t>十二经脉和任督二脉各自别出一络，加上脾之大络，总计15条，称为十五络脉。</t>
+  </si>
+  <si>
+    <t>十二经别是十二正经离、入、出、合的别行部分，是正经别行深入体腔的支脉。</t>
+  </si>
+  <si>
+    <t>十二经脉之气濡养筋肉骨节的体系，是附属于十二经的筋膜系统。</t>
+  </si>
+  <si>
+    <t>是十二经脉功能活动反映于体表的部位，也是经络之气散布之所在。</t>
+  </si>
+  <si>
+    <t>奇经八脉中的督脉、任脉、冲脉皆起于胞中，同出于会阴，故称为“一源三歧”。</t>
+  </si>
+  <si>
+    <t>标本”主要指经脉脸穴分布的上下对应关系。“标”原意是树梢，在上部，与人体头面胸背的位置相对应；“本”是树根，在下部，与人体四肢下端相应。根结”指经气的所起与所归，“根”指根本、开始，即四肢末端的井穴；“结”指结聚、归结，即头胸腹部，《标幽赋》谓之“四根”、“三结”。</t>
+  </si>
+  <si>
+    <t>气街是经气聚集通行的共同通路，分布于头、胸、腹（背）、胫等处，是经气流行、集中和布散的主要部位。</t>
+  </si>
+  <si>
+    <t>四海是髄海、血海、气海、水谷之海的总称。“海”有百川归聚之意。</t>
+  </si>
+  <si>
+    <t>指冲脉，因其涵蓄十二经气血，故称“十二经之海”。</t>
+  </si>
+  <si>
+    <t>四街指四气街，即头气之街在脑；胸气之街在膺、背俞；腹气之街在冲脉、背俞；胫气之街在气冲。</t>
+  </si>
+  <si>
+    <t>运行于经脉中之气，亦称脉气，是先天后天精气的结合物，而运行输布全身，不但指经脉的运动功能和经脉的营养物质，而且是整体生命功能的表现。</t>
+  </si>
+  <si>
+    <t>是针灸临床上最为常见的一种必络现象，它是指用亳针、脉冲电、按压等方法刺激人体穴位时，所产生的一种酸、麻、胀、重等感觉沿着古典经脉路线传导的现象，一直被人们认为是古人创立经络学说的主要依据。</t>
+  </si>
+  <si>
+    <t>根结”指经气的所起与所归，“根”指根本、开始，即四肢末端的井穴；“结”指结聚、归结，即头胸腹部，《标幽赋》谓之“四根”、“三结”。</t>
+  </si>
+  <si>
+    <t>主要依据：①针灸等刺激的感应和传导的观察。②穴位功效的总结。③体表病理现象的推理。④解剖生理知识的启发。⑤源于古代哲学思想的影响。</t>
+  </si>
+  <si>
+    <t>包括十二经脉、十二经别、十五络脉、奇经八脉、十二经筋及十二皮部和浮络、孙络等。</t>
+  </si>
+  <si>
+    <t>十二经脉的名称，是根据阴阳消长、上下肢分布，及其与脏腑属络的关系而命名的。如循于上肢内侧的经脉属阴，根据阴气的盛衰特征，分别为手太阴、手少阴、手厥阴。其中手太阴与肺相属，称之为手太阴肺经；手少阴与心相屈，称之为手少阴心经；手厥阴与心包相属，称之为手厥阴心包经。</t>
+  </si>
+  <si>
+    <t>十二经脉的循行方向是手三阴经从胸走手，手三阳经从手走头，足三阳经从头走足，足三阴经从足走腹胸。其交接规律为相表里的阴经与阳经在手足末端交接，同名的阳经与阳经在头面部交接，相互衔接的阴经与阴经在胸中交接。</t>
+  </si>
+  <si>
+    <t>①沟通了十二经脉之间的联系，将部位相近、功能相似的经脉联系起来，起到统摄有关经脉气血、协调阴阳的作用。②对十二经脉气血有蓄溢和渗灌的作用，奇经八脉犹如湖泊水库，而十二经脉犹如江河之水。</t>
+  </si>
+  <si>
+    <t>十二经脉的传注从手太阴肺经开始，依次传注到手阳明大肠经、足阳明胃经、足太阴脾经、手少阴心经、手太阳小肠经、足太阳膀胱经、足少阴肾经、手厥阴心包经、手少阳三焦经、足少阳胆经、足厥阴肝经、手太阴肺经，构成了周而复始、如环无端的系统。</t>
+  </si>
+  <si>
+    <t>主治咽喉、胸、肺及经脉循行所过的上肢部位病证。例如：咳喘、咯血、胸痛、胸闷、咽喉肿痛、外感风寒及上肢内侧前缘疼痛等。</t>
+  </si>
+  <si>
+    <t>肺手太阴之脉，起于中焦，下络大肠，还循胃口，上膈属肺。从肺系，横出腋下，下循購内，行少阴、心主之前，下肘中，循臂内上骨下廉，人寸口，上鱼，循鱼际，出大指之端。其支者，从腕后，直出次指内廉，出其端。</t>
+  </si>
+  <si>
+    <t>大肠手阳明之脉，起于大指次指之端，循指上廉出合谷两骨间，上入两筋之中，循臂上廉，人肘外廉，上嚅外前廉，上肩，出于鹘骨之前廉，上出于柱骨之会上，下人缺盆，络肺，下膈，属大肠。其支者，从缺盆上颈，贯颊，入下齿中；还出挟口，交人中——左之右、右之左，上挟毋孔。</t>
+  </si>
+  <si>
+    <t>手阳明大肠经起于商阳穴，止于迎香穴。左右各20个脑穴。</t>
+  </si>
+  <si>
+    <t>手阳明大肠经的所有脸穴，它们都能够主治头面、五官、咽喉、热病和经脉循行部位的其他病证。</t>
+  </si>
+  <si>
+    <t>足阳明胃经的胎穴主治胃肠病，头、面、目、鼻、口、齿病，神志病及经脉循行部位的其他病证。</t>
+  </si>
+  <si>
+    <t>足太阴脾经的经穴主治脾胃病、妇科前阴病及经脉循行部位的其他病证。</t>
+  </si>
+  <si>
+    <t>足太阴脾经的起始穴是隐白，止于大包，穴位总数是左右各21个。</t>
+  </si>
+  <si>
+    <t>手太阳小肠经经穴主治头、项、耳、目、咽喉病，热病，神志病及经脉循行部位的其他病证。</t>
+  </si>
+  <si>
+    <t>足太阳膀胱经穴主治头、项、目、背、腰、下肢部病证，以及神志病。背腰部第1侧线上的背俞穴及第2侧线上与背俞穴位置相平的脸穴，主治与其相关的脏腑病证利有关的组织器官的病证。</t>
+  </si>
+  <si>
+    <t>足太阳膀胱经的起穴是睛明穴，止穴是至阴穴，腌穴总数为左右各67个。</t>
+  </si>
+  <si>
+    <t>足少阴肾经的经穴主治妇科、前阴病，肾、肺、咽喉病及经脉循行部位的其他病证。</t>
+  </si>
+  <si>
+    <t>肾足少阴之脉，起于小指之下，邪（斜）走足心，出于然谷之下，循内踝之后，别入跟中，以上腸内，出胭内廉,上股内后廉，贯脊屈肾，络膀胱。其直者，从肾上贯肝膈，入肺中，循喉咙，挟舌本。其支者，从肺出，络心，注胸中。</t>
+  </si>
+  <si>
+    <t>手少阳三焦经的起穴是关冲，止穴是丝竹空。脳穴总数是左右各23个。</t>
+  </si>
+  <si>
+    <t>十二经脉中六阴经在四肢内侧和胸腹，上肢内侧为手三阴经，下肢内侧为足三阴经；六阳经分布于四肢外侧和头面、躯干，上肢外侧为手三阳经，下肢外侧为足三阳经。按立正姿势，大指在前，小指在后的体位，将上下肢的内外侧均分手足前、中、后3个区域，十二经脉在四肢的排列为：手足阳经为阳明在前，少阳在中，太阳在后；手足阴经为太阴在前，厥阴在中，少阴在后，其中足三阴经在内踝上8寸以下为厥阴在前，太阴在中，少阴在后，至内踝上8寸以上，太阴交出于厥阴之前。</t>
+  </si>
+  <si>
+    <t>写出督脉经的起止穴、腧穴总数。</t>
+  </si>
+  <si>
+    <t>足少阳胆经的经脉循行中耳部支脉的循行是“从耳后入耳中，出走耳前,至目锐眦后。”</t>
+  </si>
+  <si>
+    <t>足少阳胆经的起穴是瞳子髎，止穴是足窍阴，脸穴总数是左右各44个。</t>
+  </si>
+  <si>
+    <t>肝足厥阴之脉，起于大指丛毛之际，上循足附上廉，去内踝一寸，上踝八寸，交出太阴之后，上胭内廉，循股阴，入毛中，过阴器，抵小腹，挟胃，属肝，络胆，上贯膈，布胁肋，循喉咙之后，上入硕颗，连目系，上出额，与督脉会于城。其支者，从目系下颊里，环唇内。其支者，复从肝别贯膈，上注肺。</t>
+  </si>
+  <si>
+    <t>足厥阴肝经的经穴主治肝病、妇科病、前阴病及经脉行部位的其他病证。</t>
+  </si>
+  <si>
+    <t>任脉起穴是会阴，止穴是承浆。一名一穴，共24个。</t>
+  </si>
+  <si>
+    <t>督脉的起穴是长强，止穴是龈交。一名一穴，共28个。</t>
+  </si>
+  <si>
+    <t>十二经中，哪几条经脉的支脉较多？</t>
+  </si>
+  <si>
+    <t>十二经脉中循行于肩部的经脉有哪些？</t>
+  </si>
+  <si>
+    <t>试述十二经脉循行中具有一条主脉、两条支脉的经脉名称？</t>
+  </si>
+  <si>
+    <t>试述十二经脉中循行到耳周围及耳中的经脉名称。</t>
+  </si>
+  <si>
+    <t>为什么经脉流注从手太阴肺经开始？</t>
+  </si>
+  <si>
+    <t>试述《内经》经络发展的贡献。</t>
+  </si>
+  <si>
+    <t>试述十五络脉的分出部位、走向（散布）与作用。</t>
+  </si>
+  <si>
+    <t>试述经络的生理作用。</t>
+  </si>
+  <si>
+    <t>简述十二经别的分布特点以及主要作用。</t>
+  </si>
+  <si>
+    <t>试述经络的生理功能及经络学说在临床上的应用。</t>
+  </si>
+  <si>
+    <t>试述标本根结、气街的理论对针灸临床的指导意义。</t>
+  </si>
+  <si>
+    <t>足阳明胃经、足太阳膀胱经、足少阳胆经3条经脉的支脉较多。其中足阳胃经有5条支脉；足太阳膀胱经和足少阳胆经各有4条支脉。</t>
+  </si>
+  <si>
+    <t>足太阳膀胱经：“循肩膊内”；足少阳胆经；“至肩上”；手太阳小肠经：“上肩，出飆骨之前廉”；手少阳三焦经：“循脯外上肩”。</t>
+  </si>
+  <si>
+    <t>十二经脉中具一条主脉、两条支脉的有手太阳小肠经、手厥阴心包经、手少阳三焦经、足厥阴肝经4条。</t>
+  </si>
+  <si>
+    <t>足太阳膀胱经，其支者“至耳上角”；足阳明胃经“循颊车，上耳前；“足少阳胆经，“入耳中”；手少阳三焦经，“系耳后，直上出耳上角"，其支者“从耳后入耳中，出走耳前”；手太阳小肠经，“至目锐眦，却入耳中”。</t>
+  </si>
+  <si>
+    <t>《灵枢•营卫生会》说："人受气于谷，以传于师，五脏六腑皆以受气。”因为肺手太阴之脉，起于中焦，下络大肠，还循胃口……五脏六腑皆受气于胃，其精气上输于脾，肺朝百脉，主一身之气。水谷精微的营气运行于经脉之中，敷布周身，全赖肺气的推动。故十二经脉起始于手太阴肺经，逐经相传，终于足厥阴肝经，又传于肺，周而复始，如环无端。《灵枢•动输》也指出：“胃为五脏六腑之海，其清气上注于肺，肺从太阴而行之。”所以十二经脉循行次序始于手太阴肺经。</t>
+  </si>
+  <si>
+    <t>《内经》是中医学中最早的经典著作，它分为《灵枢》《索问》，总结了秦汉以前医学方面的成就，尤对经络的论述更为详尽，从而说明了战国时代经络学说已基本形成。其主要阐述了：(1) 十二经脉在人体的循行分布及其与脏腑器官的关系，经脉流注依次衔接，是周而复始、如环无端的传注系统。(2) 十二经脉功能失调时所发生的病候。(3) 论述了十二经别、奇经八脉、十五络脉、十二经筋和皮部的分布与作用。(4) 十二经脉的标本、根结联系。(5) 人体中营、卫、气、血在经络内外流行散布的情况，以及对机体组织器官所起的营养濡润和卫外作用。</t>
+  </si>
+  <si>
+    <t>(1)十二经脉的别络(络脉)，在四肢肘、膝关节以下本经的络穴分岀后，均走向其相表里的经脉。(2) 任脉的别络，从鸠尾穴分岀后，散布于腹部。其作用主要是沟通了腹部经气。(3) 督脉的别络，从长强穴分出后:散布于头部，左右别走足太阳经，其作用是沟通了背部经气。(4) 脾之大络，从大包穴分出，散布于胸胁，其作用主要是沟通了躯干侧部的经气。</t>
+  </si>
+  <si>
+    <t>十二经别是十二正经离、入、出、合的别行部分，是正经别行深入体腔的支脉。十二经别多从四肢肘膝关节以上的正经别出（离），经过躯干，深入体腔与相关的脏腑联系（入），再浅出于体表，上行头项部（出），在头项部阳经经别合于本经的经脉，阴经的经别合于其表里的阳经经脉（合），由此将十二经汇合成6组，称为“六合”。例如；足太阳、足少阴经别从胭部分岀，入走肾与膀胱，上出于项，合于足太阳膀胱经。由于十二经别有离、入、虫、合的特点，不仅加强了十二经脉的内兀联系，更加强了经脉所属络的脏腑在体腔深部的联系，补充了十二经脉在体内外循行的不足。由于十二经别通过表里相合的"六合”作用，使得十二经脉中的阴经与头部发生了联系，从而扩大了手足三阴经穴位的主治范围，加强了十二经脉与头面的联系，故而突出了头面部经脉和穴位的重要性及其主治作用。</t>
+  </si>
+  <si>
+    <t>经络的生理功能主要有：①联络脏腑，沟通肢窍。《灵枢•海论》指出“夫十二经脉者，内属于府藏，外络于肢节。”人体的五脏六腑、四肢百骸、五官九窍、皮肉筋骨等组织器官，正是依靠复杂的经络系统联系成为一个有机的整体，保证正常人体生理活动的进行。②运行气血，濡养周身。《灵枢•本藏》：“经脉者，所以行气血而营阴阳，濡筋骨，利关节者也。”经络是气血运行的通道。能将营养物质输布到全身各组织器官，保证其正常的生理功能。③抗御外邪，保卫机体。经络能“行气血而营阴阳”，营气行于脉中，卫气行于脉外，使营卫之气密布全身，卫气充实于络脉，络脉散布于全身，密布于皮部，当外邪侵犯机体时，由表及里，卫气首当其冲发挥其抗御外邪、保卫机体的屏障作用。由于经络学说是中医基础理论的重要组成部分，故其在临床上有重要的指导意义：①阐明病理变化。经络是人体沟通内外的通道，在生理功能失调时，又是病邪传注的途径，具有反映病候的特点，故临床某些疾病的病理过程中，常常在经络循行通路上出现明显的压痛、结节、条索等反应物，以及相应的皮肤色泽、形态、温度、电阻的变化。通过望色，循经触摸反应物和按压，可推断疾病的病理变化。②指导辨证归经。鉴于经络有一定的循行部位及所属络的脏腑，故根据体表相关部位发生的病理变化，可以推断疾病所在的经脉。如头痛一证，在前额者多与阳明经有关，在两侧多与少阳经有关等。临床上亦可根据所出现的证候，结合其所联系的脏腑，进行辨证归经。如咳嗽昇流清涕、胸闷、上肢内侧前缘疼痛等，与手太阴肺经有关。③指导针灸治疗。临床上可根据经脉循行的主治持点进行循经取穴。《四总穴歌》:“肚腹三里留，腰背委中求，头项寻列缺，面口合谷收。”就是循经取穴的体现。由于脏腑、经络与皮部关系密切，故当脏腑有疾时可用皮部穴位贴敷或皮肤针治疗。经筋疾患，多因病在筋膜肌肉，表现为拘挛、强直、弛缓，可以以痛为踰，取其局部痛点或穴位进行治疗。</t>
+  </si>
+  <si>
+    <t>十二经脉中的标本、根结、气街的理论，在经络的分布和气血运行的基础上，进一步阐明了经络脸穴上下内外的对应关系，强调了人体四肢与头身的关系，指出四肢末端的一些膾穴与头、胸、腹、背踰穴的关系，对针灸临床具有重要的指导意义。“标本”主要指经脉踰穴分布的上下对应关系，“标”原意指树梢，在上部，与人体头面胸背的位置相应；“本”指树根，在下部，与人体的四肢下端相应。“根结”指经气的所起与所归，“根”指根本、开始，即四肢末端的井穴；“结”指结聚、归结，即头、胸、腹部。《标幽赋》指出十二经脉以四肢为“根”，以头胸腹三部为“结”，称"四根三结”。由此可见十二经脉的“根”与"本”、“结”与“标”位置相近或相同，意义也相似，但“标本”强调经脉分布上下部位的相应关系，即经气的集中和扩散，而“根结”更强调了经气两极间的关系。“气街”是经气的聚集通行的共同通路，《灵枢•卫气》指出：“胸气有街，腹气有街，头气有街，胫气有街。”说明了头、胸、腹、胫是经气聚集循行的部位。但“四街”的位置即是经气流行、集中和布散的主要部位，又是标本根结中“标”与“结”的所在部位。由此可见，标本根结和气街的理论补充了经气运行的情况，即经气循行的多样性和弥散作用，强调了人体头身与四肢的密切关系，为针灸临床中四肢肘膝关系以下的脸穴治疗远离腑穴部位的疾病、头面五官疾病,头身穴位治疗四肢疾病，以及“上病下取”、“下病上取”等治则提供了理论依据。</t>
+  </si>
+  <si>
+    <t>经络是经脉和络脉的总称，是指人体运行气血、联络脏腑、沟通内外、贯穿上下的径路。“经”有路径的含义，为直行的主干。“络”有网络的含义，为经脉所分出的小支。经络纵横交错，遍布于全身。通过经络系统的联系，人体内外、脏腑、肢节成为一个有机的整体。</t>
+  </si>
+  <si>
+    <t>(1)起联系整体的作用。将人体的五脏六腑、四肢百骸、五官九窍、皮肉筋骨联系成为一个统一的生命整体。（2）起运行气血、营养周身的作用。气血是人体生命活动最重要的物质基础，必须通过经络和经络之气的作用转输运送全身，发挥作用。（3）起防御病邪的作用。人体之所以能健康生活，少受外邪侵犯，主要靠抗御外邪的物质——卫气充养到络脉，使肌胰致密，起保卫肌体、抵抗外邪的作用。（4）维持人体与自然环境的相应关系。人体生活在自然环境中，自然环境的变化对人体有一定的影响。经络系统在通达内外的基础上，同时与大自然建立了相互适应的关系，如脉搏四时的变化，春弦、夏洪、秋毛、冬石；又如一日之内十二经气血流注的情况，每经气血有盛衰时辰，子午流注针法，就是在这种理论指导下应用的。人休之所以能适应自然变化，主要是通过经络的作用。</t>
+  </si>
+  <si>
+    <t>现代大量实验研究的结果</t>
+  </si>
+  <si>
+    <t>十一脉的名称缺少手少阴心经</t>
+  </si>
+  <si>
+    <t>五行</t>
+  </si>
+  <si>
+    <t>阳经属腑主表</t>
+  </si>
+  <si>
+    <t>足三阴经从足走胸腹</t>
+  </si>
+  <si>
+    <t>三焦、心包、膀胱</t>
+  </si>
+  <si>
+    <t>均上下循行</t>
+  </si>
+  <si>
+    <t>睛明穴</t>
+  </si>
+  <si>
+    <t>会阴</t>
+  </si>
+  <si>
+    <t>都是走向相表里的经脉</t>
+  </si>
+  <si>
+    <t>面部</t>
+  </si>
+  <si>
+    <t>十二络脉中位于体表的浮络</t>
+  </si>
+  <si>
+    <t>埋针</t>
+  </si>
+  <si>
+    <t>四肢下端</t>
+  </si>
+  <si>
+    <t>扩大了手足三阴经穴位的主治范围</t>
+  </si>
+  <si>
+    <t>约乎骨骼，屈伸关节</t>
+  </si>
+  <si>
+    <t>水谷之海</t>
+  </si>
+  <si>
+    <t>指导分经辨证作用</t>
+  </si>
+  <si>
+    <t>抗御病邪</t>
+  </si>
+  <si>
+    <t>经脉流注，依次衔接</t>
+  </si>
+  <si>
+    <t>《黄帝流注脉经》</t>
+  </si>
+  <si>
+    <t>行气血而营阴阳</t>
+  </si>
+  <si>
+    <t>肿痛</t>
+  </si>
+  <si>
+    <t>阴经与阴经在腹部交接</t>
+  </si>
+  <si>
+    <t>无所属穴位，亦无所主病证</t>
+  </si>
+  <si>
+    <t>循行走向与正经基本一致</t>
+  </si>
+  <si>
+    <t>均是</t>
+  </si>
+  <si>
+    <t>食指尺侧</t>
+  </si>
+  <si>
+    <t>均不是</t>
+  </si>
+  <si>
+    <t>任、督、带脉同起于胞中</t>
+  </si>
+  <si>
+    <t>胃经起于鼻</t>
+  </si>
+  <si>
+    <t>中府</t>
+  </si>
+  <si>
+    <t>肺经</t>
+  </si>
+  <si>
+    <t>风池</t>
   </si>
 </sst>
 </file>
@@ -1623,10 +2829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K138"/>
+  <dimension ref="A1:K265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" topLeftCell="B184" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +2840,10 @@
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3349</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1650,17 +2859,23 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3350</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1676,17 +2891,23 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3351</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1702,17 +2923,23 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3352</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1728,17 +2955,23 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3353</v>
+      </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -1754,17 +2987,23 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3354</v>
+      </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -1780,17 +3019,23 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3355</v>
+      </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1806,17 +3051,23 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3356</v>
+      </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -1832,17 +3083,23 @@
       <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3357</v>
+      </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -1858,17 +3115,23 @@
       <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3358</v>
+      </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -1884,17 +3147,23 @@
       <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3359</v>
+      </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -1910,17 +3179,23 @@
       <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3360</v>
+      </c>
       <c r="B12" t="s">
         <v>52</v>
       </c>
@@ -1936,17 +3211,23 @@
       <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>32</v>
       </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3361</v>
+      </c>
       <c r="B13" t="s">
         <v>56</v>
       </c>
@@ -1962,17 +3243,23 @@
       <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3362</v>
+      </c>
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -1988,17 +3275,23 @@
       <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3363</v>
+      </c>
       <c r="B15" t="s">
         <v>59</v>
       </c>
@@ -2014,17 +3307,23 @@
       <c r="F15" t="s">
         <v>73</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
         <v>32</v>
       </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3364</v>
+      </c>
       <c r="B16" t="s">
         <v>60</v>
       </c>
@@ -2040,17 +3339,23 @@
       <c r="F16" t="s">
         <v>77</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
         <v>18</v>
       </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3365</v>
+      </c>
       <c r="B17" t="s">
         <v>61</v>
       </c>
@@ -2066,17 +3371,23 @@
       <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
         <v>20</v>
       </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3366</v>
+      </c>
       <c r="B18" t="s">
         <v>62</v>
       </c>
@@ -2092,17 +3403,23 @@
       <c r="F18" t="s">
         <v>85</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
         <v>32</v>
       </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3367</v>
+      </c>
       <c r="B19" t="s">
         <v>63</v>
       </c>
@@ -2118,17 +3435,23 @@
       <c r="F19" t="s">
         <v>89</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
         <v>19</v>
       </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3368</v>
+      </c>
       <c r="B20" t="s">
         <v>64</v>
       </c>
@@ -2144,17 +3467,23 @@
       <c r="F20" t="s">
         <v>93</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
         <v>32</v>
       </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3369</v>
+      </c>
       <c r="B21" t="s">
         <v>65</v>
       </c>
@@ -2170,17 +3499,23 @@
       <c r="F21" t="s">
         <v>96</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21">
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
         <v>20</v>
       </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3370</v>
+      </c>
       <c r="B22" t="s">
         <v>97</v>
       </c>
@@ -2196,17 +3531,23 @@
       <c r="F22" t="s">
         <v>109</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
         <v>32</v>
       </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3371</v>
+      </c>
       <c r="B23" t="s">
         <v>98</v>
       </c>
@@ -2222,17 +3563,23 @@
       <c r="F23" t="s">
         <v>109</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23">
+        <v>56</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>20</v>
       </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3372</v>
+      </c>
       <c r="B24" t="s">
         <v>99</v>
       </c>
@@ -2248,17 +3595,23 @@
       <c r="F24" t="s">
         <v>94</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24">
+        <v>56</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
         <v>32</v>
       </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3373</v>
+      </c>
       <c r="B25" t="s">
         <v>100</v>
       </c>
@@ -2274,17 +3627,23 @@
       <c r="F25" t="s">
         <v>115</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25">
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
         <v>32</v>
       </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3374</v>
+      </c>
       <c r="B26" t="s">
         <v>101</v>
       </c>
@@ -2300,17 +3659,23 @@
       <c r="F26" t="s">
         <v>88</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
         <v>32</v>
       </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3375</v>
+      </c>
       <c r="B27" t="s">
         <v>102</v>
       </c>
@@ -2326,17 +3691,23 @@
       <c r="F27" t="s">
         <v>120</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27">
+        <v>56</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
         <v>18</v>
       </c>
-      <c r="I27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3376</v>
+      </c>
       <c r="B28" t="s">
         <v>103</v>
       </c>
@@ -2352,17 +3723,23 @@
       <c r="F28" t="s">
         <v>122</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28">
+        <v>56</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
         <v>32</v>
       </c>
-      <c r="I28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3377</v>
+      </c>
       <c r="B29" t="s">
         <v>104</v>
       </c>
@@ -2378,17 +3755,23 @@
       <c r="F29" t="s">
         <v>124</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29">
+        <v>56</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
         <v>19</v>
       </c>
-      <c r="I29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3378</v>
+      </c>
       <c r="B30" t="s">
         <v>105</v>
       </c>
@@ -2404,17 +3787,23 @@
       <c r="F30" t="s">
         <v>124</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30">
+        <v>56</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
         <v>32</v>
       </c>
-      <c r="I30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3379</v>
+      </c>
       <c r="B31" t="s">
         <v>125</v>
       </c>
@@ -2430,17 +3819,23 @@
       <c r="F31" t="s">
         <v>137</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31">
+        <v>56</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
         <v>18</v>
       </c>
-      <c r="I31" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3380</v>
+      </c>
       <c r="B32" t="s">
         <v>126</v>
       </c>
@@ -2456,17 +3851,23 @@
       <c r="F32" t="s">
         <v>141</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
         <v>18</v>
       </c>
-      <c r="I32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3381</v>
+      </c>
       <c r="B33" t="s">
         <v>127</v>
       </c>
@@ -2482,17 +3883,23 @@
       <c r="F33" t="s">
         <v>89</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33">
+        <v>56</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
         <v>19</v>
       </c>
-      <c r="I33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3382</v>
+      </c>
       <c r="B34" t="s">
         <v>128</v>
       </c>
@@ -2508,17 +3915,23 @@
       <c r="F34" t="s">
         <v>147</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34">
+        <v>56</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
         <v>18</v>
       </c>
-      <c r="I34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3383</v>
+      </c>
       <c r="B35" t="s">
         <v>129</v>
       </c>
@@ -2534,17 +3947,23 @@
       <c r="F35" t="s">
         <v>151</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35">
+        <v>56</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
         <v>18</v>
       </c>
-      <c r="I35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3384</v>
+      </c>
       <c r="B36" t="s">
         <v>130</v>
       </c>
@@ -2560,17 +3979,23 @@
       <c r="F36" t="s">
         <v>155</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36">
+        <v>56</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
         <v>19</v>
       </c>
-      <c r="I36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3385</v>
+      </c>
       <c r="B37" t="s">
         <v>131</v>
       </c>
@@ -2586,17 +4011,23 @@
       <c r="F37" t="s">
         <v>159</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37">
+        <v>56</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
         <v>20</v>
       </c>
-      <c r="I37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3386</v>
+      </c>
       <c r="B38" t="s">
         <v>132</v>
       </c>
@@ -2612,17 +4043,23 @@
       <c r="F38" t="s">
         <v>160</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38">
+        <v>56</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
         <v>32</v>
       </c>
-      <c r="I38" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3387</v>
+      </c>
       <c r="B39" t="s">
         <v>133</v>
       </c>
@@ -2638,17 +4075,23 @@
       <c r="F39" t="s">
         <v>137</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39">
+        <v>56</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
         <v>18</v>
       </c>
-      <c r="I39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3388</v>
+      </c>
       <c r="B40" t="s">
         <v>134</v>
       </c>
@@ -2664,17 +4107,23 @@
       <c r="F40" t="s">
         <v>165</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40">
+        <v>56</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
         <v>20</v>
       </c>
-      <c r="I40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3389</v>
+      </c>
       <c r="B41" t="s">
         <v>166</v>
       </c>
@@ -2690,17 +4139,23 @@
       <c r="F41" t="s">
         <v>161</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41">
+        <v>56</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
         <v>32</v>
       </c>
-      <c r="I41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3390</v>
+      </c>
       <c r="B42" t="s">
         <v>167</v>
       </c>
@@ -2716,17 +4171,23 @@
       <c r="F42" t="s">
         <v>178</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42">
+        <v>56</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
         <v>18</v>
       </c>
-      <c r="I42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3391</v>
+      </c>
       <c r="B43" t="s">
         <v>168</v>
       </c>
@@ -2742,17 +4203,23 @@
       <c r="F43" t="s">
         <v>137</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43">
+        <v>56</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
         <v>32</v>
       </c>
-      <c r="I43" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3392</v>
+      </c>
       <c r="B44" t="s">
         <v>169</v>
       </c>
@@ -2768,17 +4235,23 @@
       <c r="F44" t="s">
         <v>182</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44">
+        <v>56</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
         <v>18</v>
       </c>
-      <c r="I44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3393</v>
+      </c>
       <c r="B45" t="s">
         <v>170</v>
       </c>
@@ -2794,17 +4267,23 @@
       <c r="F45" t="s">
         <v>186</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45">
+        <v>56</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
         <v>19</v>
       </c>
-      <c r="I45" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3394</v>
+      </c>
       <c r="B46" t="s">
         <v>171</v>
       </c>
@@ -2820,17 +4299,23 @@
       <c r="F46" t="s">
         <v>189</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46">
+        <v>56</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
         <v>20</v>
       </c>
-      <c r="I46" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3395</v>
+      </c>
       <c r="B47" t="s">
         <v>172</v>
       </c>
@@ -2846,17 +4331,23 @@
       <c r="F47" t="s">
         <v>193</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47">
+        <v>56</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
         <v>32</v>
       </c>
-      <c r="I47" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3396</v>
+      </c>
       <c r="B48" t="s">
         <v>173</v>
       </c>
@@ -2872,17 +4363,23 @@
       <c r="F48" t="s">
         <v>197</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48">
+        <v>56</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
         <v>20</v>
       </c>
-      <c r="I48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3397</v>
+      </c>
       <c r="B49" t="s">
         <v>174</v>
       </c>
@@ -2898,17 +4395,23 @@
       <c r="F49" t="s">
         <v>201</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49">
+        <v>56</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
         <v>18</v>
       </c>
-      <c r="I49" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3398</v>
+      </c>
       <c r="B50" t="s">
         <v>202</v>
       </c>
@@ -2924,17 +4427,23 @@
       <c r="F50" t="s">
         <v>212</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50">
+        <v>56</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
         <v>18</v>
       </c>
-      <c r="I50" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3399</v>
+      </c>
       <c r="B51" t="s">
         <v>203</v>
       </c>
@@ -2950,17 +4459,23 @@
       <c r="F51" t="s">
         <v>210</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51">
+        <v>56</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
         <v>32</v>
       </c>
-      <c r="I51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3400</v>
+      </c>
       <c r="B52" t="s">
         <v>204</v>
       </c>
@@ -2976,17 +4491,23 @@
       <c r="F52" t="s">
         <v>211</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52">
+        <v>56</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
         <v>32</v>
       </c>
-      <c r="I52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3401</v>
+      </c>
       <c r="B53" t="s">
         <v>205</v>
       </c>
@@ -3002,17 +4523,23 @@
       <c r="F53" t="s">
         <v>217</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53">
+        <v>56</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
         <v>20</v>
       </c>
-      <c r="I53" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3402</v>
+      </c>
       <c r="B54" t="s">
         <v>206</v>
       </c>
@@ -3028,17 +4555,23 @@
       <c r="F54" t="s">
         <v>221</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54">
+        <v>56</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
         <v>20</v>
       </c>
-      <c r="I54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3403</v>
+      </c>
       <c r="B55" t="s">
         <v>207</v>
       </c>
@@ -3054,17 +4587,23 @@
       <c r="F55" t="s">
         <v>136</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55">
+        <v>56</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
         <v>32</v>
       </c>
-      <c r="I55" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3404</v>
+      </c>
       <c r="B56" t="s">
         <v>208</v>
       </c>
@@ -3080,17 +4619,23 @@
       <c r="F56" t="s">
         <v>226</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56">
+        <v>56</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
         <v>20</v>
       </c>
-      <c r="I56" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3405</v>
+      </c>
       <c r="B57" t="s">
         <v>209</v>
       </c>
@@ -3106,17 +4651,23 @@
       <c r="F57" t="s">
         <v>230</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57">
+        <v>56</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
         <v>18</v>
       </c>
-      <c r="I57" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3406</v>
+      </c>
       <c r="B58" t="s">
         <v>231</v>
       </c>
@@ -3132,17 +4683,23 @@
       <c r="F58" t="s">
         <v>241</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58">
+        <v>56</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
         <v>20</v>
       </c>
-      <c r="I58" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3407</v>
+      </c>
       <c r="B59" t="s">
         <v>232</v>
       </c>
@@ -3158,17 +4715,23 @@
       <c r="F59" t="s">
         <v>245</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59">
+        <v>56</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
         <v>18</v>
       </c>
-      <c r="I59" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3408</v>
+      </c>
       <c r="B60" t="s">
         <v>233</v>
       </c>
@@ -3184,17 +4747,23 @@
       <c r="F60" t="s">
         <v>114</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60">
+        <v>56</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
         <v>18</v>
       </c>
-      <c r="I60" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3409</v>
+      </c>
       <c r="B61" t="s">
         <v>234</v>
       </c>
@@ -3210,17 +4779,23 @@
       <c r="F61" t="s">
         <v>247</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61">
+        <v>56</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
         <v>19</v>
       </c>
-      <c r="I61" t="s">
-        <v>17</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3410</v>
+      </c>
       <c r="B62" t="s">
         <v>235</v>
       </c>
@@ -3236,17 +4811,23 @@
       <c r="F62" t="s">
         <v>250</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62">
+        <v>56</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
         <v>32</v>
       </c>
-      <c r="I62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3411</v>
+      </c>
       <c r="B63" t="s">
         <v>236</v>
       </c>
@@ -3262,17 +4843,23 @@
       <c r="F63" t="s">
         <v>253</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63">
+        <v>56</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
         <v>19</v>
       </c>
-      <c r="I63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3412</v>
+      </c>
       <c r="B64" t="s">
         <v>237</v>
       </c>
@@ -3288,17 +4875,23 @@
       <c r="F64" t="s">
         <v>257</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64">
+        <v>56</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
         <v>18</v>
       </c>
-      <c r="I64" t="s">
-        <v>17</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3413</v>
+      </c>
       <c r="B65" t="s">
         <v>238</v>
       </c>
@@ -3314,17 +4907,23 @@
       <c r="F65" t="s">
         <v>261</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65">
+        <v>56</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
         <v>32</v>
       </c>
-      <c r="I65" t="s">
-        <v>17</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3414</v>
+      </c>
       <c r="B66" t="s">
         <v>262</v>
       </c>
@@ -3340,17 +4939,23 @@
       <c r="F66" t="s">
         <v>291</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66">
+        <v>56</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
         <v>18</v>
       </c>
-      <c r="I66" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3415</v>
+      </c>
       <c r="B67" t="s">
         <v>263</v>
       </c>
@@ -3366,17 +4971,23 @@
       <c r="F67" t="s">
         <v>295</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67">
+        <v>56</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
         <v>20</v>
       </c>
-      <c r="I67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3416</v>
+      </c>
       <c r="B68" t="s">
         <v>264</v>
       </c>
@@ -3392,17 +5003,23 @@
       <c r="F68" t="s">
         <v>299</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68">
+        <v>56</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
         <v>32</v>
       </c>
-      <c r="I68" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3417</v>
+      </c>
       <c r="B69" t="s">
         <v>265</v>
       </c>
@@ -3418,17 +5035,23 @@
       <c r="F69" t="s">
         <v>303</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69">
+        <v>56</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
         <v>32</v>
       </c>
-      <c r="I69" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3418</v>
+      </c>
       <c r="B70" t="s">
         <v>266</v>
       </c>
@@ -3444,17 +5067,23 @@
       <c r="F70" t="s">
         <v>86</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70">
+        <v>56</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
         <v>32</v>
       </c>
-      <c r="I70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3419</v>
+      </c>
       <c r="B71" t="s">
         <v>267</v>
       </c>
@@ -3470,17 +5099,23 @@
       <c r="F71" t="s">
         <v>426</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71">
+        <v>56</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
         <v>32</v>
       </c>
-      <c r="I71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3420</v>
+      </c>
       <c r="B72" t="s">
         <v>268</v>
       </c>
@@ -3496,17 +5131,23 @@
       <c r="F72" t="s">
         <v>310</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72">
+        <v>56</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
         <v>18</v>
       </c>
-      <c r="I72" t="s">
-        <v>17</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3421</v>
+      </c>
       <c r="B73" t="s">
         <v>269</v>
       </c>
@@ -3522,17 +5163,23 @@
       <c r="F73" t="s">
         <v>312</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73">
+        <v>56</v>
+      </c>
+      <c r="H73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
         <v>32</v>
       </c>
-      <c r="I73" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3422</v>
+      </c>
       <c r="B74" t="s">
         <v>270</v>
       </c>
@@ -3548,17 +5195,23 @@
       <c r="F74" t="s">
         <v>316</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74">
+        <v>56</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
         <v>18</v>
       </c>
-      <c r="I74" t="s">
-        <v>17</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3423</v>
+      </c>
       <c r="B75" t="s">
         <v>271</v>
       </c>
@@ -3574,17 +5227,23 @@
       <c r="F75" t="s">
         <v>320</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75">
+        <v>56</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
         <v>18</v>
       </c>
-      <c r="I75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3424</v>
+      </c>
       <c r="B76" t="s">
         <v>272</v>
       </c>
@@ -3600,17 +5259,23 @@
       <c r="F76" t="s">
         <v>324</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76">
+        <v>56</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
         <v>32</v>
       </c>
-      <c r="I76" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3425</v>
+      </c>
       <c r="B77" t="s">
         <v>273</v>
       </c>
@@ -3626,17 +5291,23 @@
       <c r="F77" t="s">
         <v>328</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77">
+        <v>56</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
         <v>20</v>
       </c>
-      <c r="I77" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3426</v>
+      </c>
       <c r="B78" t="s">
         <v>274</v>
       </c>
@@ -3652,17 +5323,23 @@
       <c r="F78" t="s">
         <v>332</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78">
+        <v>56</v>
+      </c>
+      <c r="H78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
         <v>18</v>
       </c>
-      <c r="I78" t="s">
-        <v>17</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3427</v>
+      </c>
       <c r="B79" t="s">
         <v>275</v>
       </c>
@@ -3678,17 +5355,23 @@
       <c r="F79" t="s">
         <v>55</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79">
+        <v>56</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
         <v>32</v>
       </c>
-      <c r="I79" t="s">
-        <v>17</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3428</v>
+      </c>
       <c r="B80" t="s">
         <v>276</v>
       </c>
@@ -3704,17 +5387,23 @@
       <c r="F80" t="s">
         <v>335</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80">
+        <v>56</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
         <v>19</v>
       </c>
-      <c r="I80" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3429</v>
+      </c>
       <c r="B81" t="s">
         <v>277</v>
       </c>
@@ -3730,17 +5419,23 @@
       <c r="F81" t="s">
         <v>292</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81">
+        <v>56</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
         <v>32</v>
       </c>
-      <c r="I81" t="s">
-        <v>17</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3430</v>
+      </c>
       <c r="B82" t="s">
         <v>278</v>
       </c>
@@ -3756,17 +5451,23 @@
       <c r="F82" t="s">
         <v>341</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82">
+        <v>56</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
         <v>20</v>
       </c>
-      <c r="I82" t="s">
-        <v>17</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3431</v>
+      </c>
       <c r="B83" t="s">
         <v>279</v>
       </c>
@@ -3782,17 +5483,23 @@
       <c r="F83" t="s">
         <v>334</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83">
+        <v>56</v>
+      </c>
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
         <v>18</v>
       </c>
-      <c r="I83" t="s">
-        <v>17</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3432</v>
+      </c>
       <c r="B84" t="s">
         <v>280</v>
       </c>
@@ -3808,17 +5515,23 @@
       <c r="F84" t="s">
         <v>55</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84">
+        <v>56</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
         <v>19</v>
       </c>
-      <c r="I84" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3433</v>
+      </c>
       <c r="B85" t="s">
         <v>281</v>
       </c>
@@ -3834,17 +5547,23 @@
       <c r="F85" t="s">
         <v>54</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85">
+        <v>56</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
         <v>18</v>
       </c>
-      <c r="I85" t="s">
-        <v>17</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3434</v>
+      </c>
       <c r="B86" t="s">
         <v>282</v>
       </c>
@@ -3860,17 +5579,23 @@
       <c r="F86" t="s">
         <v>53</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86">
+        <v>56</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
         <v>20</v>
       </c>
-      <c r="I86" t="s">
-        <v>17</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3435</v>
+      </c>
       <c r="B87" t="s">
         <v>283</v>
       </c>
@@ -3886,17 +5611,23 @@
       <c r="F87" t="s">
         <v>312</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87">
+        <v>56</v>
+      </c>
+      <c r="H87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
         <v>20</v>
       </c>
-      <c r="I87" t="s">
-        <v>17</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3436</v>
+      </c>
       <c r="B88" t="s">
         <v>284</v>
       </c>
@@ -3912,17 +5643,23 @@
       <c r="F88" t="s">
         <v>117</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88">
+        <v>56</v>
+      </c>
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
         <v>32</v>
       </c>
-      <c r="I88" t="s">
-        <v>17</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3437</v>
+      </c>
       <c r="B89" t="s">
         <v>285</v>
       </c>
@@ -3938,17 +5675,23 @@
       <c r="F89" t="s">
         <v>298</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89">
+        <v>56</v>
+      </c>
+      <c r="H89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
         <v>32</v>
       </c>
-      <c r="I89" t="s">
-        <v>17</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3438</v>
+      </c>
       <c r="B90" t="s">
         <v>286</v>
       </c>
@@ -3964,17 +5707,23 @@
       <c r="F90" t="s">
         <v>345</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90">
+        <v>56</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
         <v>18</v>
       </c>
-      <c r="I90" t="s">
-        <v>17</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3439</v>
+      </c>
       <c r="B91" t="s">
         <v>287</v>
       </c>
@@ -3990,17 +5739,23 @@
       <c r="F91" t="s">
         <v>54</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91">
+        <v>56</v>
+      </c>
+      <c r="H91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
         <v>32</v>
       </c>
-      <c r="I91" t="s">
-        <v>17</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3440</v>
+      </c>
       <c r="B92" t="s">
         <v>347</v>
       </c>
@@ -4016,17 +5771,23 @@
       <c r="F92" t="s">
         <v>53</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92">
+        <v>56</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
         <v>18</v>
       </c>
-      <c r="I92" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3441</v>
+      </c>
       <c r="B93" t="s">
         <v>348</v>
       </c>
@@ -4042,17 +5803,23 @@
       <c r="F93" t="s">
         <v>296</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93">
+        <v>56</v>
+      </c>
+      <c r="H93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
         <v>32</v>
       </c>
-      <c r="I93" t="s">
-        <v>17</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3442</v>
+      </c>
       <c r="B94" t="s">
         <v>349</v>
       </c>
@@ -4068,17 +5835,23 @@
       <c r="F94" t="s">
         <v>55</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94">
+        <v>56</v>
+      </c>
+      <c r="H94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
         <v>20</v>
       </c>
-      <c r="I94" t="s">
-        <v>17</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3443</v>
+      </c>
       <c r="B95" t="s">
         <v>350</v>
       </c>
@@ -4094,17 +5867,23 @@
       <c r="F95" t="s">
         <v>326</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95">
+        <v>56</v>
+      </c>
+      <c r="H95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
         <v>19</v>
       </c>
-      <c r="I95" t="s">
-        <v>17</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3444</v>
+      </c>
       <c r="B96" t="s">
         <v>356</v>
       </c>
@@ -4120,17 +5899,23 @@
       <c r="F96" t="s">
         <v>355</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96">
+        <v>56</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
         <v>20</v>
       </c>
-      <c r="I96" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3445</v>
+      </c>
       <c r="B97" t="s">
         <v>357</v>
       </c>
@@ -4146,17 +5931,23 @@
       <c r="F97" t="s">
         <v>296</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97">
+        <v>56</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
         <v>18</v>
       </c>
-      <c r="I97" t="s">
-        <v>17</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3446</v>
+      </c>
       <c r="B98" t="s">
         <v>358</v>
       </c>
@@ -4172,17 +5963,23 @@
       <c r="F98" t="s">
         <v>312</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98">
+        <v>56</v>
+      </c>
+      <c r="H98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" t="s">
         <v>19</v>
       </c>
-      <c r="I98" t="s">
-        <v>17</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3447</v>
+      </c>
       <c r="B99" t="s">
         <v>359</v>
       </c>
@@ -4198,17 +5995,23 @@
       <c r="F99" t="s">
         <v>297</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99">
+        <v>56</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
         <v>32</v>
       </c>
-      <c r="I99" t="s">
-        <v>17</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3448</v>
+      </c>
       <c r="B100" t="s">
         <v>360</v>
       </c>
@@ -4224,17 +6027,23 @@
       <c r="F100" t="s">
         <v>351</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100">
+        <v>56</v>
+      </c>
+      <c r="H100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
         <v>20</v>
       </c>
-      <c r="I100" t="s">
-        <v>17</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3449</v>
+      </c>
       <c r="B101" t="s">
         <v>361</v>
       </c>
@@ -4250,17 +6059,23 @@
       <c r="F101" t="s">
         <v>55</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101">
+        <v>56</v>
+      </c>
+      <c r="H101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
         <v>18</v>
       </c>
-      <c r="I101" t="s">
-        <v>17</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3450</v>
+      </c>
       <c r="B102" t="s">
         <v>362</v>
       </c>
@@ -4276,17 +6091,23 @@
       <c r="F102" t="s">
         <v>121</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102">
+        <v>56</v>
+      </c>
+      <c r="H102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
         <v>32</v>
       </c>
-      <c r="I102" t="s">
-        <v>17</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3451</v>
+      </c>
       <c r="B103" t="s">
         <v>363</v>
       </c>
@@ -4302,17 +6123,23 @@
       <c r="F103" t="s">
         <v>54</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103">
+        <v>56</v>
+      </c>
+      <c r="H103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" t="s">
         <v>32</v>
       </c>
-      <c r="I103" t="s">
-        <v>17</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3452</v>
+      </c>
       <c r="B104" t="s">
         <v>364</v>
       </c>
@@ -4328,17 +6155,23 @@
       <c r="F104" t="s">
         <v>368</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104">
+        <v>56</v>
+      </c>
+      <c r="H104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" t="s">
         <v>20</v>
       </c>
-      <c r="I104" t="s">
-        <v>17</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3453</v>
+      </c>
       <c r="B105" t="s">
         <v>369</v>
       </c>
@@ -4354,17 +6187,23 @@
       <c r="F105" t="s">
         <v>371</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105">
+        <v>56</v>
+      </c>
+      <c r="H105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105" t="s">
         <v>20</v>
       </c>
-      <c r="I105" t="s">
-        <v>17</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3454</v>
+      </c>
       <c r="B106" t="s">
         <v>372</v>
       </c>
@@ -4380,17 +6219,23 @@
       <c r="F106" t="s">
         <v>371</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106">
+        <v>56</v>
+      </c>
+      <c r="H106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
         <v>18</v>
       </c>
-      <c r="I106" t="s">
-        <v>17</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3455</v>
+      </c>
       <c r="B107" t="s">
         <v>373</v>
       </c>
@@ -4406,17 +6251,23 @@
       <c r="F107" t="s">
         <v>13</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107">
+        <v>56</v>
+      </c>
+      <c r="H107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="s">
         <v>32</v>
       </c>
-      <c r="I107" t="s">
-        <v>17</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3456</v>
+      </c>
       <c r="B108" t="s">
         <v>374</v>
       </c>
@@ -4432,17 +6283,23 @@
       <c r="F108" t="s">
         <v>378</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108">
+        <v>56</v>
+      </c>
+      <c r="H108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="s">
         <v>32</v>
       </c>
-      <c r="I108" t="s">
-        <v>17</v>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3457</v>
+      </c>
       <c r="B109" t="s">
         <v>379</v>
       </c>
@@ -4458,17 +6315,23 @@
       <c r="F109" t="s">
         <v>13</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109">
+        <v>56</v>
+      </c>
+      <c r="H109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
         <v>32</v>
       </c>
-      <c r="I109" t="s">
-        <v>17</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3458</v>
+      </c>
       <c r="B110" t="s">
         <v>380</v>
       </c>
@@ -4484,17 +6347,23 @@
       <c r="F110" t="s">
         <v>14</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110">
+        <v>56</v>
+      </c>
+      <c r="H110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
         <v>20</v>
       </c>
-      <c r="I110" t="s">
-        <v>17</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3459</v>
+      </c>
       <c r="B111" t="s">
         <v>381</v>
       </c>
@@ -4510,17 +6379,23 @@
       <c r="F111" t="s">
         <v>51</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111">
+        <v>56</v>
+      </c>
+      <c r="H111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
         <v>20</v>
       </c>
-      <c r="I111" t="s">
-        <v>17</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3460</v>
+      </c>
       <c r="B112" t="s">
         <v>382</v>
       </c>
@@ -4536,17 +6411,23 @@
       <c r="F112" t="s">
         <v>371</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112">
+        <v>56</v>
+      </c>
+      <c r="H112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
         <v>18</v>
       </c>
-      <c r="I112" t="s">
-        <v>17</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3461</v>
+      </c>
       <c r="B113" t="s">
         <v>385</v>
       </c>
@@ -4562,17 +6443,23 @@
       <c r="F113" t="s">
         <v>383</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113">
+        <v>56</v>
+      </c>
+      <c r="H113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
         <v>20</v>
       </c>
-      <c r="I113" t="s">
-        <v>17</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3462</v>
+      </c>
       <c r="B114" t="s">
         <v>387</v>
       </c>
@@ -4588,17 +6475,23 @@
       <c r="F114" t="s">
         <v>391</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114">
+        <v>56</v>
+      </c>
+      <c r="H114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
         <v>20</v>
       </c>
-      <c r="I114" t="s">
-        <v>17</v>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3463</v>
+      </c>
       <c r="B115" t="s">
         <v>392</v>
       </c>
@@ -4614,17 +6507,23 @@
       <c r="F115" t="s">
         <v>386</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115">
+        <v>56</v>
+      </c>
+      <c r="H115" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115" t="s">
         <v>18</v>
       </c>
-      <c r="I115" t="s">
-        <v>17</v>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3464</v>
+      </c>
       <c r="B116" t="s">
         <v>427</v>
       </c>
@@ -4640,17 +6539,23 @@
       <c r="F116" t="s">
         <v>386</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116">
+        <v>56</v>
+      </c>
+      <c r="H116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116" t="s">
         <v>18</v>
       </c>
-      <c r="I116" t="s">
-        <v>17</v>
-      </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>3465</v>
+      </c>
       <c r="B117" t="s">
         <v>393</v>
       </c>
@@ -4666,17 +6571,23 @@
       <c r="F117" t="s">
         <v>384</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117">
+        <v>56</v>
+      </c>
+      <c r="H117" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117" t="s">
         <v>19</v>
       </c>
-      <c r="I117" t="s">
-        <v>17</v>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3466</v>
+      </c>
       <c r="B118" t="s">
         <v>394</v>
       </c>
@@ -4692,17 +6603,23 @@
       <c r="F118" t="s">
         <v>115</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118">
+        <v>56</v>
+      </c>
+      <c r="H118" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
         <v>32</v>
       </c>
-      <c r="I118" t="s">
-        <v>17</v>
-      </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3467</v>
+      </c>
       <c r="B119" t="s">
         <v>395</v>
       </c>
@@ -4718,17 +6635,23 @@
       <c r="F119" t="s">
         <v>384</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119">
+        <v>56</v>
+      </c>
+      <c r="H119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" t="s">
         <v>19</v>
       </c>
-      <c r="I119" t="s">
-        <v>17</v>
-      </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>3468</v>
+      </c>
       <c r="B120" t="s">
         <v>396</v>
       </c>
@@ -4744,17 +6667,23 @@
       <c r="F120" t="s">
         <v>50</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120">
+        <v>56</v>
+      </c>
+      <c r="H120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
         <v>32</v>
       </c>
-      <c r="I120" t="s">
-        <v>17</v>
-      </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3469</v>
+      </c>
       <c r="B121" t="s">
         <v>397</v>
       </c>
@@ -4770,17 +6699,23 @@
       <c r="F121" t="s">
         <v>398</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121">
+        <v>56</v>
+      </c>
+      <c r="H121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121" t="s">
         <v>18</v>
       </c>
-      <c r="I121" t="s">
-        <v>17</v>
-      </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3470</v>
+      </c>
       <c r="B122" t="s">
         <v>399</v>
       </c>
@@ -4796,17 +6731,23 @@
       <c r="F122" t="s">
         <v>14</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122">
+        <v>56</v>
+      </c>
+      <c r="H122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122" t="s">
         <v>20</v>
       </c>
-      <c r="I122" t="s">
-        <v>17</v>
-      </c>
-      <c r="K122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3471</v>
+      </c>
       <c r="B123" t="s">
         <v>400</v>
       </c>
@@ -4822,17 +6763,23 @@
       <c r="F123" t="s">
         <v>115</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123">
+        <v>56</v>
+      </c>
+      <c r="H123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123" t="s">
         <v>20</v>
       </c>
-      <c r="I123" t="s">
-        <v>17</v>
-      </c>
-      <c r="K123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3472</v>
+      </c>
       <c r="B124" t="s">
         <v>401</v>
       </c>
@@ -4848,17 +6795,23 @@
       <c r="F124" t="s">
         <v>405</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124">
+        <v>56</v>
+      </c>
+      <c r="H124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124" t="s">
         <v>19</v>
       </c>
-      <c r="I124" t="s">
-        <v>17</v>
-      </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3473</v>
+      </c>
       <c r="B125" t="s">
         <v>406</v>
       </c>
@@ -4874,17 +6827,23 @@
       <c r="F125" t="s">
         <v>371</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125">
+        <v>56</v>
+      </c>
+      <c r="H125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125" t="s">
         <v>32</v>
       </c>
-      <c r="I125" t="s">
-        <v>17</v>
-      </c>
-      <c r="K125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3474</v>
+      </c>
       <c r="B126" t="s">
         <v>407</v>
       </c>
@@ -4900,17 +6859,23 @@
       <c r="F126" t="s">
         <v>411</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126">
+        <v>56</v>
+      </c>
+      <c r="H126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126" t="s">
         <v>18</v>
       </c>
-      <c r="I126" t="s">
-        <v>17</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3475</v>
+      </c>
       <c r="B127" t="s">
         <v>412</v>
       </c>
@@ -4926,17 +6891,23 @@
       <c r="F127" t="s">
         <v>13</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127">
+        <v>56</v>
+      </c>
+      <c r="H127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127" t="s">
         <v>18</v>
       </c>
-      <c r="I127" t="s">
-        <v>17</v>
-      </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3476</v>
+      </c>
       <c r="B128" t="s">
         <v>413</v>
       </c>
@@ -4952,17 +6923,23 @@
       <c r="F128" t="s">
         <v>383</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128">
+        <v>56</v>
+      </c>
+      <c r="H128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128" t="s">
         <v>20</v>
       </c>
-      <c r="I128" t="s">
-        <v>17</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3477</v>
+      </c>
       <c r="B129" t="s">
         <v>428</v>
       </c>
@@ -4978,17 +6955,23 @@
       <c r="F129" t="s">
         <v>371</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129">
+        <v>56</v>
+      </c>
+      <c r="H129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129" t="s">
         <v>19</v>
       </c>
-      <c r="I129" t="s">
-        <v>17</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3478</v>
+      </c>
       <c r="B130" t="s">
         <v>414</v>
       </c>
@@ -5004,17 +6987,23 @@
       <c r="F130" t="s">
         <v>370</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130">
+        <v>56</v>
+      </c>
+      <c r="H130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130" t="s">
         <v>18</v>
       </c>
-      <c r="I130" t="s">
-        <v>17</v>
-      </c>
-      <c r="K130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3479</v>
+      </c>
       <c r="B131" t="s">
         <v>415</v>
       </c>
@@ -5030,17 +7019,23 @@
       <c r="F131" t="s">
         <v>113</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131">
+        <v>56</v>
+      </c>
+      <c r="H131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131" t="s">
         <v>18</v>
       </c>
-      <c r="I131" t="s">
-        <v>17</v>
-      </c>
-      <c r="K131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3480</v>
+      </c>
       <c r="B132" t="s">
         <v>416</v>
       </c>
@@ -5056,17 +7051,23 @@
       <c r="F132" t="s">
         <v>50</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132">
+        <v>56</v>
+      </c>
+      <c r="H132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132" t="s">
         <v>18</v>
       </c>
-      <c r="I132" t="s">
-        <v>17</v>
-      </c>
-      <c r="K132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3481</v>
+      </c>
       <c r="B133" t="s">
         <v>417</v>
       </c>
@@ -5082,17 +7083,23 @@
       <c r="F133" t="s">
         <v>113</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133">
+        <v>56</v>
+      </c>
+      <c r="H133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133" t="s">
         <v>20</v>
       </c>
-      <c r="I133" t="s">
-        <v>17</v>
-      </c>
-      <c r="K133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3482</v>
+      </c>
       <c r="B134" t="s">
         <v>418</v>
       </c>
@@ -5108,17 +7115,23 @@
       <c r="F134" t="s">
         <v>51</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134">
+        <v>56</v>
+      </c>
+      <c r="H134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
         <v>19</v>
       </c>
-      <c r="I134" t="s">
-        <v>17</v>
-      </c>
-      <c r="K134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3483</v>
+      </c>
       <c r="B135" t="s">
         <v>420</v>
       </c>
@@ -5134,17 +7147,23 @@
       <c r="F135" t="s">
         <v>13</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135">
+        <v>56</v>
+      </c>
+      <c r="H135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135" t="s">
         <v>32</v>
       </c>
-      <c r="I135" t="s">
-        <v>17</v>
-      </c>
-      <c r="K135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3484</v>
+      </c>
       <c r="B136" t="s">
         <v>421</v>
       </c>
@@ -5160,17 +7179,23 @@
       <c r="F136" t="s">
         <v>422</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136">
+        <v>56</v>
+      </c>
+      <c r="H136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136" t="s">
         <v>18</v>
       </c>
-      <c r="I136" t="s">
-        <v>17</v>
-      </c>
-      <c r="K136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3485</v>
+      </c>
       <c r="B137" t="s">
         <v>423</v>
       </c>
@@ -5186,17 +7211,23 @@
       <c r="F137" t="s">
         <v>370</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137">
+        <v>56</v>
+      </c>
+      <c r="H137" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137" t="s">
         <v>20</v>
       </c>
-      <c r="I137" t="s">
-        <v>17</v>
-      </c>
-      <c r="K137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3486</v>
+      </c>
       <c r="B138" t="s">
         <v>424</v>
       </c>
@@ -5212,14 +7243,3622 @@
       <c r="F138" t="s">
         <v>15</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138">
+        <v>56</v>
+      </c>
+      <c r="H138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138" t="s">
         <v>20</v>
       </c>
-      <c r="I138" t="s">
-        <v>17</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3487</v>
+      </c>
+      <c r="B139" t="s">
+        <v>429</v>
+      </c>
+      <c r="C139" t="s">
+        <v>430</v>
+      </c>
+      <c r="D139" t="s">
+        <v>431</v>
+      </c>
+      <c r="E139" t="s">
+        <v>432</v>
+      </c>
+      <c r="F139" t="s">
+        <v>433</v>
+      </c>
+      <c r="G139">
+        <v>56</v>
+      </c>
+      <c r="H139" t="s">
+        <v>687</v>
+      </c>
+      <c r="I139" t="s">
+        <v>797</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3488</v>
+      </c>
+      <c r="B140" t="s">
+        <v>435</v>
+      </c>
+      <c r="C140" t="s">
+        <v>436</v>
+      </c>
+      <c r="D140" t="s">
+        <v>437</v>
+      </c>
+      <c r="E140" t="s">
+        <v>438</v>
+      </c>
+      <c r="F140" t="s">
+        <v>439</v>
+      </c>
+      <c r="G140">
+        <v>56</v>
+      </c>
+      <c r="H140" t="s">
+        <v>687</v>
+      </c>
+      <c r="I140" t="s">
+        <v>798</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3489</v>
+      </c>
+      <c r="B141" t="s">
+        <v>440</v>
+      </c>
+      <c r="C141" t="s">
+        <v>441</v>
+      </c>
+      <c r="D141" t="s">
+        <v>189</v>
+      </c>
+      <c r="E141" t="s">
+        <v>442</v>
+      </c>
+      <c r="F141" t="s">
+        <v>443</v>
+      </c>
+      <c r="G141">
+        <v>56</v>
+      </c>
+      <c r="H141" t="s">
+        <v>687</v>
+      </c>
+      <c r="I141" t="s">
+        <v>799</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3490</v>
+      </c>
+      <c r="B142" t="s">
+        <v>445</v>
+      </c>
+      <c r="C142" t="s">
+        <v>446</v>
+      </c>
+      <c r="D142" t="s">
+        <v>370</v>
+      </c>
+      <c r="E142" t="s">
+        <v>447</v>
+      </c>
+      <c r="F142" t="s">
+        <v>448</v>
+      </c>
+      <c r="G142">
+        <v>56</v>
+      </c>
+      <c r="H142" t="s">
+        <v>687</v>
+      </c>
+      <c r="I142" t="s">
+        <v>113</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3491</v>
+      </c>
+      <c r="B143" t="s">
+        <v>449</v>
+      </c>
+      <c r="C143" t="s">
+        <v>69</v>
+      </c>
+      <c r="D143" t="s">
+        <v>66</v>
+      </c>
+      <c r="E143" t="s">
+        <v>450</v>
+      </c>
+      <c r="F143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G143">
+        <v>56</v>
+      </c>
+      <c r="H143" t="s">
+        <v>687</v>
+      </c>
+      <c r="I143" t="s">
+        <v>800</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>3492</v>
+      </c>
+      <c r="B144" t="s">
+        <v>451</v>
+      </c>
+      <c r="C144" t="s">
+        <v>452</v>
+      </c>
+      <c r="D144" t="s">
+        <v>70</v>
+      </c>
+      <c r="E144" t="s">
+        <v>73</v>
+      </c>
+      <c r="F144" t="s">
+        <v>72</v>
+      </c>
+      <c r="G144">
+        <v>56</v>
+      </c>
+      <c r="H144" t="s">
+        <v>687</v>
+      </c>
+      <c r="I144" t="s">
+        <v>801</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3493</v>
+      </c>
+      <c r="B145" t="s">
+        <v>456</v>
+      </c>
+      <c r="C145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D145" t="s">
+        <v>457</v>
+      </c>
+      <c r="E145" t="s">
+        <v>458</v>
+      </c>
+      <c r="F145" t="s">
+        <v>459</v>
+      </c>
+      <c r="G145">
+        <v>56</v>
+      </c>
+      <c r="H145" t="s">
+        <v>687</v>
+      </c>
+      <c r="I145" t="s">
+        <v>802</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3494</v>
+      </c>
+      <c r="B146" t="s">
+        <v>460</v>
+      </c>
+      <c r="C146" t="s">
+        <v>87</v>
+      </c>
+      <c r="D146" t="s">
+        <v>188</v>
+      </c>
+      <c r="E146" t="s">
+        <v>142</v>
+      </c>
+      <c r="F146" t="s">
+        <v>143</v>
+      </c>
+      <c r="G146">
+        <v>56</v>
+      </c>
+      <c r="H146" t="s">
+        <v>687</v>
+      </c>
+      <c r="I146" t="s">
+        <v>89</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3495</v>
+      </c>
+      <c r="B147" t="s">
+        <v>462</v>
+      </c>
+      <c r="C147" t="s">
+        <v>90</v>
+      </c>
+      <c r="D147" t="s">
+        <v>463</v>
+      </c>
+      <c r="E147" t="s">
+        <v>464</v>
+      </c>
+      <c r="F147" t="s">
+        <v>465</v>
+      </c>
+      <c r="G147">
+        <v>56</v>
+      </c>
+      <c r="H147" t="s">
+        <v>687</v>
+      </c>
+      <c r="I147" t="s">
+        <v>803</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3496</v>
+      </c>
+      <c r="B148" t="s">
+        <v>467</v>
+      </c>
+      <c r="C148" t="s">
+        <v>86</v>
+      </c>
+      <c r="D148" t="s">
+        <v>88</v>
+      </c>
+      <c r="E148" t="s">
+        <v>116</v>
+      </c>
+      <c r="F148" t="s">
+        <v>123</v>
+      </c>
+      <c r="G148">
+        <v>56</v>
+      </c>
+      <c r="H148" t="s">
+        <v>687</v>
+      </c>
+      <c r="I148" t="s">
+        <v>117</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3497</v>
+      </c>
+      <c r="B149" t="s">
+        <v>468</v>
+      </c>
+      <c r="C149" t="s">
+        <v>114</v>
+      </c>
+      <c r="D149" t="s">
+        <v>116</v>
+      </c>
+      <c r="E149" t="s">
+        <v>123</v>
+      </c>
+      <c r="F149" t="s">
+        <v>117</v>
+      </c>
+      <c r="G149">
+        <v>56</v>
+      </c>
+      <c r="H149" t="s">
+        <v>687</v>
+      </c>
+      <c r="I149" t="s">
+        <v>124</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3498</v>
+      </c>
+      <c r="B150" t="s">
+        <v>473</v>
+      </c>
+      <c r="C150" t="s">
+        <v>469</v>
+      </c>
+      <c r="D150" t="s">
+        <v>470</v>
+      </c>
+      <c r="E150" t="s">
+        <v>471</v>
+      </c>
+      <c r="F150" t="s">
+        <v>472</v>
+      </c>
+      <c r="G150">
+        <v>56</v>
+      </c>
+      <c r="H150" t="s">
+        <v>687</v>
+      </c>
+      <c r="I150" t="s">
+        <v>804</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3499</v>
+      </c>
+      <c r="B151" t="s">
+        <v>126</v>
+      </c>
+      <c r="C151" t="s">
+        <v>138</v>
+      </c>
+      <c r="D151" t="s">
+        <v>139</v>
+      </c>
+      <c r="E151" t="s">
+        <v>140</v>
+      </c>
+      <c r="F151" t="s">
+        <v>141</v>
+      </c>
+      <c r="G151">
+        <v>56</v>
+      </c>
+      <c r="H151" t="s">
+        <v>687</v>
+      </c>
+      <c r="I151" t="s">
+        <v>805</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3500</v>
+      </c>
+      <c r="B152" t="s">
+        <v>474</v>
+      </c>
+      <c r="C152" t="s">
+        <v>475</v>
+      </c>
+      <c r="D152" t="s">
+        <v>135</v>
+      </c>
+      <c r="E152" t="s">
+        <v>136</v>
+      </c>
+      <c r="F152" t="s">
+        <v>137</v>
+      </c>
+      <c r="G152">
+        <v>56</v>
+      </c>
+      <c r="H152" t="s">
+        <v>687</v>
+      </c>
+      <c r="I152" t="s">
+        <v>161</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3501</v>
+      </c>
+      <c r="B153" t="s">
+        <v>477</v>
+      </c>
+      <c r="C153" t="s">
+        <v>478</v>
+      </c>
+      <c r="D153" t="s">
+        <v>479</v>
+      </c>
+      <c r="E153" t="s">
+        <v>480</v>
+      </c>
+      <c r="F153" t="s">
+        <v>481</v>
+      </c>
+      <c r="G153">
+        <v>56</v>
+      </c>
+      <c r="H153" t="s">
+        <v>687</v>
+      </c>
+      <c r="I153" t="s">
+        <v>806</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3502</v>
+      </c>
+      <c r="B154" t="s">
+        <v>482</v>
+      </c>
+      <c r="C154" t="s">
+        <v>483</v>
+      </c>
+      <c r="D154" t="s">
+        <v>484</v>
+      </c>
+      <c r="E154" t="s">
+        <v>485</v>
+      </c>
+      <c r="F154" t="s">
+        <v>486</v>
+      </c>
+      <c r="G154">
+        <v>56</v>
+      </c>
+      <c r="H154" t="s">
+        <v>687</v>
+      </c>
+      <c r="I154" t="s">
+        <v>487</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3503</v>
+      </c>
+      <c r="B155" t="s">
+        <v>488</v>
+      </c>
+      <c r="C155" t="s">
+        <v>486</v>
+      </c>
+      <c r="D155" t="s">
+        <v>487</v>
+      </c>
+      <c r="E155" t="s">
+        <v>483</v>
+      </c>
+      <c r="F155" t="s">
+        <v>485</v>
+      </c>
+      <c r="G155">
+        <v>56</v>
+      </c>
+      <c r="H155" t="s">
+        <v>687</v>
+      </c>
+      <c r="I155" t="s">
+        <v>487</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3504</v>
+      </c>
+      <c r="B156" t="s">
+        <v>489</v>
+      </c>
+      <c r="C156" t="s">
+        <v>77</v>
+      </c>
+      <c r="D156" t="s">
+        <v>490</v>
+      </c>
+      <c r="E156" t="s">
+        <v>491</v>
+      </c>
+      <c r="F156" t="s">
+        <v>492</v>
+      </c>
+      <c r="G156">
+        <v>56</v>
+      </c>
+      <c r="H156" t="s">
+        <v>687</v>
+      </c>
+      <c r="I156" t="s">
+        <v>807</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3505</v>
+      </c>
+      <c r="B157" t="s">
+        <v>493</v>
+      </c>
+      <c r="C157" t="s">
+        <v>183</v>
+      </c>
+      <c r="D157" t="s">
+        <v>185</v>
+      </c>
+      <c r="E157" t="s">
+        <v>494</v>
+      </c>
+      <c r="F157" t="s">
+        <v>495</v>
+      </c>
+      <c r="G157">
+        <v>56</v>
+      </c>
+      <c r="H157" t="s">
+        <v>687</v>
+      </c>
+      <c r="I157" t="s">
+        <v>186</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3506</v>
+      </c>
+      <c r="B158" t="s">
+        <v>496</v>
+      </c>
+      <c r="C158" t="s">
+        <v>497</v>
+      </c>
+      <c r="D158" t="s">
+        <v>498</v>
+      </c>
+      <c r="E158" t="s">
+        <v>499</v>
+      </c>
+      <c r="F158" t="s">
+        <v>500</v>
+      </c>
+      <c r="G158">
+        <v>56</v>
+      </c>
+      <c r="H158" t="s">
+        <v>687</v>
+      </c>
+      <c r="I158" t="s">
+        <v>808</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3507</v>
+      </c>
+      <c r="B159" t="s">
+        <v>501</v>
+      </c>
+      <c r="C159" t="s">
+        <v>502</v>
+      </c>
+      <c r="D159" t="s">
+        <v>503</v>
+      </c>
+      <c r="E159" t="s">
+        <v>504</v>
+      </c>
+      <c r="F159" t="s">
+        <v>505</v>
+      </c>
+      <c r="G159">
+        <v>56</v>
+      </c>
+      <c r="H159" t="s">
+        <v>687</v>
+      </c>
+      <c r="I159" t="s">
+        <v>809</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3508</v>
+      </c>
+      <c r="B160" t="s">
+        <v>506</v>
+      </c>
+      <c r="C160" t="s">
+        <v>507</v>
+      </c>
+      <c r="D160" t="s">
+        <v>508</v>
+      </c>
+      <c r="E160" t="s">
+        <v>509</v>
+      </c>
+      <c r="F160" t="s">
+        <v>148</v>
+      </c>
+      <c r="G160">
+        <v>56</v>
+      </c>
+      <c r="H160" t="s">
+        <v>687</v>
+      </c>
+      <c r="I160" t="s">
+        <v>149</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3509</v>
+      </c>
+      <c r="B161" t="s">
+        <v>510</v>
+      </c>
+      <c r="C161" t="s">
+        <v>507</v>
+      </c>
+      <c r="D161" t="s">
+        <v>511</v>
+      </c>
+      <c r="E161" t="s">
+        <v>512</v>
+      </c>
+      <c r="F161" t="s">
+        <v>513</v>
+      </c>
+      <c r="G161">
+        <v>56</v>
+      </c>
+      <c r="H161" t="s">
+        <v>687</v>
+      </c>
+      <c r="I161" t="s">
+        <v>810</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3510</v>
+      </c>
+      <c r="B162" t="s">
+        <v>514</v>
+      </c>
+      <c r="C162" t="s">
+        <v>515</v>
+      </c>
+      <c r="D162" t="s">
+        <v>516</v>
+      </c>
+      <c r="E162" t="s">
+        <v>517</v>
+      </c>
+      <c r="F162" t="s">
+        <v>518</v>
+      </c>
+      <c r="G162">
+        <v>56</v>
+      </c>
+      <c r="H162" t="s">
+        <v>687</v>
+      </c>
+      <c r="I162" t="s">
+        <v>519</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3511</v>
+      </c>
+      <c r="B163" t="s">
+        <v>520</v>
+      </c>
+      <c r="C163" t="s">
+        <v>521</v>
+      </c>
+      <c r="D163" t="s">
+        <v>522</v>
+      </c>
+      <c r="E163" t="s">
+        <v>523</v>
+      </c>
+      <c r="F163" t="s">
+        <v>524</v>
+      </c>
+      <c r="G163">
+        <v>56</v>
+      </c>
+      <c r="H163" t="s">
+        <v>687</v>
+      </c>
+      <c r="I163" t="s">
+        <v>515</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>3512</v>
+      </c>
+      <c r="B164" t="s">
+        <v>525</v>
+      </c>
+      <c r="C164" t="s">
+        <v>515</v>
+      </c>
+      <c r="D164" t="s">
+        <v>526</v>
+      </c>
+      <c r="E164" t="s">
+        <v>527</v>
+      </c>
+      <c r="F164" t="s">
+        <v>518</v>
+      </c>
+      <c r="G164">
+        <v>56</v>
+      </c>
+      <c r="H164" t="s">
+        <v>687</v>
+      </c>
+      <c r="I164" t="s">
+        <v>524</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>3513</v>
+      </c>
+      <c r="B165" t="s">
+        <v>528</v>
+      </c>
+      <c r="C165" t="s">
+        <v>529</v>
+      </c>
+      <c r="D165" t="s">
+        <v>530</v>
+      </c>
+      <c r="E165" t="s">
+        <v>531</v>
+      </c>
+      <c r="F165" t="s">
+        <v>519</v>
+      </c>
+      <c r="G165">
+        <v>56</v>
+      </c>
+      <c r="H165" t="s">
+        <v>687</v>
+      </c>
+      <c r="I165" t="s">
+        <v>811</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>3514</v>
+      </c>
+      <c r="B166" t="s">
+        <v>532</v>
+      </c>
+      <c r="C166" t="s">
+        <v>533</v>
+      </c>
+      <c r="D166" t="s">
+        <v>534</v>
+      </c>
+      <c r="E166" t="s">
+        <v>526</v>
+      </c>
+      <c r="F166" t="s">
+        <v>518</v>
+      </c>
+      <c r="G166">
+        <v>56</v>
+      </c>
+      <c r="H166" t="s">
+        <v>687</v>
+      </c>
+      <c r="I166" t="s">
+        <v>812</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>3515</v>
+      </c>
+      <c r="B167" t="s">
+        <v>535</v>
+      </c>
+      <c r="C167" t="s">
+        <v>536</v>
+      </c>
+      <c r="D167" t="s">
+        <v>537</v>
+      </c>
+      <c r="E167" t="s">
+        <v>538</v>
+      </c>
+      <c r="F167" t="s">
+        <v>539</v>
+      </c>
+      <c r="G167">
+        <v>56</v>
+      </c>
+      <c r="H167" t="s">
+        <v>687</v>
+      </c>
+      <c r="I167" t="s">
+        <v>813</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>3516</v>
+      </c>
+      <c r="B168" t="s">
+        <v>540</v>
+      </c>
+      <c r="C168" t="s">
+        <v>541</v>
+      </c>
+      <c r="D168" t="s">
+        <v>542</v>
+      </c>
+      <c r="E168" t="s">
+        <v>543</v>
+      </c>
+      <c r="F168" t="s">
+        <v>544</v>
+      </c>
+      <c r="G168">
+        <v>56</v>
+      </c>
+      <c r="H168" t="s">
+        <v>687</v>
+      </c>
+      <c r="I168" t="s">
+        <v>814</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>3517</v>
+      </c>
+      <c r="B169" t="s">
+        <v>545</v>
+      </c>
+      <c r="C169" t="s">
+        <v>546</v>
+      </c>
+      <c r="D169" t="s">
+        <v>547</v>
+      </c>
+      <c r="E169" t="s">
+        <v>548</v>
+      </c>
+      <c r="F169" t="s">
+        <v>549</v>
+      </c>
+      <c r="G169">
+        <v>56</v>
+      </c>
+      <c r="H169" t="s">
+        <v>687</v>
+      </c>
+      <c r="I169" t="s">
+        <v>538</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3518</v>
+      </c>
+      <c r="B170" t="s">
+        <v>550</v>
+      </c>
+      <c r="C170" t="s">
+        <v>551</v>
+      </c>
+      <c r="D170" t="s">
+        <v>552</v>
+      </c>
+      <c r="E170" t="s">
+        <v>553</v>
+      </c>
+      <c r="F170" t="s">
+        <v>554</v>
+      </c>
+      <c r="G170">
+        <v>56</v>
+      </c>
+      <c r="H170" t="s">
+        <v>687</v>
+      </c>
+      <c r="I170" t="s">
+        <v>815</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3519</v>
+      </c>
+      <c r="B171" t="s">
+        <v>555</v>
+      </c>
+      <c r="C171" t="s">
+        <v>556</v>
+      </c>
+      <c r="D171" t="s">
+        <v>557</v>
+      </c>
+      <c r="E171" t="s">
+        <v>558</v>
+      </c>
+      <c r="F171" t="s">
+        <v>559</v>
+      </c>
+      <c r="G171">
+        <v>56</v>
+      </c>
+      <c r="H171" t="s">
+        <v>687</v>
+      </c>
+      <c r="I171" t="s">
+        <v>816</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3520</v>
+      </c>
+      <c r="B172" t="s">
+        <v>561</v>
+      </c>
+      <c r="C172" t="s">
+        <v>562</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" t="s">
+        <v>563</v>
+      </c>
+      <c r="G172">
+        <v>56</v>
+      </c>
+      <c r="H172" t="s">
+        <v>687</v>
+      </c>
+      <c r="I172" t="s">
+        <v>817</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3521</v>
+      </c>
+      <c r="B173" t="s">
+        <v>564</v>
+      </c>
+      <c r="C173" t="s">
+        <v>565</v>
+      </c>
+      <c r="D173" t="s">
+        <v>566</v>
+      </c>
+      <c r="E173" t="s">
+        <v>567</v>
+      </c>
+      <c r="F173" t="s">
+        <v>568</v>
+      </c>
+      <c r="G173">
+        <v>56</v>
+      </c>
+      <c r="H173" t="s">
+        <v>687</v>
+      </c>
+      <c r="I173" t="s">
+        <v>818</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3522</v>
+      </c>
+      <c r="B174" t="s">
+        <v>569</v>
+      </c>
+      <c r="C174" t="s">
+        <v>570</v>
+      </c>
+      <c r="D174" t="s">
+        <v>571</v>
+      </c>
+      <c r="E174" t="s">
+        <v>572</v>
+      </c>
+      <c r="F174" t="s">
+        <v>573</v>
+      </c>
+      <c r="G174">
+        <v>56</v>
+      </c>
+      <c r="H174" t="s">
+        <v>687</v>
+      </c>
+      <c r="I174" t="s">
+        <v>819</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>3523</v>
+      </c>
+      <c r="B175" t="s">
+        <v>574</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" t="s">
+        <v>51</v>
+      </c>
+      <c r="E175" t="s">
+        <v>50</v>
+      </c>
+      <c r="F175" t="s">
+        <v>115</v>
+      </c>
+      <c r="G175">
+        <v>56</v>
+      </c>
+      <c r="H175" t="s">
+        <v>687</v>
+      </c>
+      <c r="I175" t="s">
+        <v>386</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>3524</v>
+      </c>
+      <c r="B176" t="s">
+        <v>575</v>
+      </c>
+      <c r="C176" t="s">
+        <v>576</v>
+      </c>
+      <c r="D176" t="s">
+        <v>577</v>
+      </c>
+      <c r="E176" t="s">
+        <v>578</v>
+      </c>
+      <c r="F176" t="s">
+        <v>579</v>
+      </c>
+      <c r="G176">
+        <v>56</v>
+      </c>
+      <c r="H176" t="s">
+        <v>687</v>
+      </c>
+      <c r="I176" t="s">
+        <v>820</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>3525</v>
+      </c>
+      <c r="B177" t="s">
+        <v>581</v>
+      </c>
+      <c r="C177" t="s">
+        <v>585</v>
+      </c>
+      <c r="D177" t="s">
+        <v>582</v>
+      </c>
+      <c r="E177" t="s">
+        <v>583</v>
+      </c>
+      <c r="F177" t="s">
+        <v>584</v>
+      </c>
+      <c r="G177">
+        <v>56</v>
+      </c>
+      <c r="H177" t="s">
+        <v>687</v>
+      </c>
+      <c r="I177" t="s">
+        <v>821</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>3526</v>
+      </c>
+      <c r="B178" t="s">
+        <v>586</v>
+      </c>
+      <c r="C178" t="s">
+        <v>587</v>
+      </c>
+      <c r="D178" t="s">
+        <v>588</v>
+      </c>
+      <c r="E178" t="s">
+        <v>589</v>
+      </c>
+      <c r="F178" t="s">
+        <v>590</v>
+      </c>
+      <c r="G178">
+        <v>56</v>
+      </c>
+      <c r="H178" t="s">
+        <v>687</v>
+      </c>
+      <c r="I178" t="s">
+        <v>822</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>3527</v>
+      </c>
+      <c r="B179" t="s">
+        <v>591</v>
+      </c>
+      <c r="C179" t="s">
+        <v>119</v>
+      </c>
+      <c r="D179" t="s">
+        <v>120</v>
+      </c>
+      <c r="E179" t="s">
+        <v>121</v>
+      </c>
+      <c r="F179" t="s">
+        <v>592</v>
+      </c>
+      <c r="G179">
+        <v>56</v>
+      </c>
+      <c r="H179" t="s">
+        <v>687</v>
+      </c>
+      <c r="I179" t="s">
+        <v>823</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>3528</v>
+      </c>
+      <c r="B180" t="s">
+        <v>593</v>
+      </c>
+      <c r="C180" t="s">
+        <v>594</v>
+      </c>
+      <c r="D180" t="s">
+        <v>303</v>
+      </c>
+      <c r="E180" t="s">
+        <v>595</v>
+      </c>
+      <c r="F180" t="s">
+        <v>596</v>
+      </c>
+      <c r="G180">
+        <v>56</v>
+      </c>
+      <c r="H180" t="s">
+        <v>687</v>
+      </c>
+      <c r="I180" t="s">
+        <v>824</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>3529</v>
+      </c>
+      <c r="B181" t="s">
+        <v>597</v>
+      </c>
+      <c r="C181" t="s">
+        <v>598</v>
+      </c>
+      <c r="D181" t="s">
+        <v>599</v>
+      </c>
+      <c r="E181" t="s">
+        <v>600</v>
+      </c>
+      <c r="F181" t="s">
+        <v>601</v>
+      </c>
+      <c r="G181">
+        <v>56</v>
+      </c>
+      <c r="H181" t="s">
+        <v>687</v>
+      </c>
+      <c r="I181" t="s">
+        <v>825</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>3530</v>
+      </c>
+      <c r="B182" t="s">
+        <v>603</v>
+      </c>
+      <c r="C182" t="s">
+        <v>346</v>
+      </c>
+      <c r="D182" t="s">
+        <v>312</v>
+      </c>
+      <c r="E182" t="s">
+        <v>55</v>
+      </c>
+      <c r="F182" t="s">
+        <v>298</v>
+      </c>
+      <c r="G182">
+        <v>56</v>
+      </c>
+      <c r="H182" t="s">
+        <v>687</v>
+      </c>
+      <c r="I182" t="s">
+        <v>296</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>3531</v>
+      </c>
+      <c r="B183" t="s">
+        <v>604</v>
+      </c>
+      <c r="C183" t="s">
+        <v>86</v>
+      </c>
+      <c r="D183" t="s">
+        <v>114</v>
+      </c>
+      <c r="E183" t="s">
+        <v>123</v>
+      </c>
+      <c r="F183" t="s">
+        <v>293</v>
+      </c>
+      <c r="G183">
+        <v>56</v>
+      </c>
+      <c r="H183" t="s">
+        <v>687</v>
+      </c>
+      <c r="I183" t="s">
+        <v>825</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>3532</v>
+      </c>
+      <c r="B184" t="s">
+        <v>605</v>
+      </c>
+      <c r="C184" t="s">
+        <v>299</v>
+      </c>
+      <c r="D184" t="s">
+        <v>55</v>
+      </c>
+      <c r="E184" t="s">
+        <v>297</v>
+      </c>
+      <c r="F184" t="s">
+        <v>298</v>
+      </c>
+      <c r="G184">
+        <v>56</v>
+      </c>
+      <c r="H184" t="s">
+        <v>687</v>
+      </c>
+      <c r="I184" t="s">
+        <v>823</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>3533</v>
+      </c>
+      <c r="B185" t="s">
+        <v>606</v>
+      </c>
+      <c r="C185" t="s">
+        <v>299</v>
+      </c>
+      <c r="D185" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" t="s">
+        <v>346</v>
+      </c>
+      <c r="F185" t="s">
+        <v>311</v>
+      </c>
+      <c r="G185">
+        <v>56</v>
+      </c>
+      <c r="H185" t="s">
+        <v>687</v>
+      </c>
+      <c r="I185" t="s">
+        <v>343</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>3534</v>
+      </c>
+      <c r="B186" t="s">
+        <v>607</v>
+      </c>
+      <c r="C186" t="s">
+        <v>608</v>
+      </c>
+      <c r="D186" t="s">
+        <v>610</v>
+      </c>
+      <c r="E186" t="s">
+        <v>609</v>
+      </c>
+      <c r="F186" t="s">
+        <v>614</v>
+      </c>
+      <c r="G186">
+        <v>56</v>
+      </c>
+      <c r="H186" t="s">
+        <v>687</v>
+      </c>
+      <c r="I186" t="s">
+        <v>825</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>3535</v>
+      </c>
+      <c r="B187" t="s">
+        <v>611</v>
+      </c>
+      <c r="C187" t="s">
+        <v>612</v>
+      </c>
+      <c r="D187" t="s">
+        <v>613</v>
+      </c>
+      <c r="E187" t="s">
+        <v>614</v>
+      </c>
+      <c r="F187" t="s">
+        <v>147</v>
+      </c>
+      <c r="G187">
+        <v>56</v>
+      </c>
+      <c r="H187" t="s">
+        <v>687</v>
+      </c>
+      <c r="I187" t="s">
+        <v>823</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>3536</v>
+      </c>
+      <c r="B188" t="s">
+        <v>615</v>
+      </c>
+      <c r="C188" t="s">
+        <v>608</v>
+      </c>
+      <c r="D188" t="s">
+        <v>612</v>
+      </c>
+      <c r="E188" t="s">
+        <v>616</v>
+      </c>
+      <c r="F188" t="s">
+        <v>617</v>
+      </c>
+      <c r="G188">
+        <v>56</v>
+      </c>
+      <c r="H188" t="s">
+        <v>687</v>
+      </c>
+      <c r="I188" t="s">
+        <v>823</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>3537</v>
+      </c>
+      <c r="B189" t="s">
+        <v>618</v>
+      </c>
+      <c r="C189" t="s">
+        <v>94</v>
+      </c>
+      <c r="D189" t="s">
+        <v>86</v>
+      </c>
+      <c r="E189" t="s">
+        <v>88</v>
+      </c>
+      <c r="F189" t="s">
+        <v>114</v>
+      </c>
+      <c r="G189">
+        <v>56</v>
+      </c>
+      <c r="H189" t="s">
+        <v>687</v>
+      </c>
+      <c r="I189" t="s">
+        <v>825</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>3538</v>
+      </c>
+      <c r="B190" t="s">
+        <v>619</v>
+      </c>
+      <c r="C190" t="s">
+        <v>620</v>
+      </c>
+      <c r="D190" t="s">
+        <v>621</v>
+      </c>
+      <c r="E190" t="s">
+        <v>622</v>
+      </c>
+      <c r="F190" t="s">
+        <v>623</v>
+      </c>
+      <c r="G190">
+        <v>56</v>
+      </c>
+      <c r="H190" t="s">
+        <v>687</v>
+      </c>
+      <c r="I190" t="s">
+        <v>825</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>3539</v>
+      </c>
+      <c r="B191" t="s">
+        <v>625</v>
+      </c>
+      <c r="C191" t="s">
+        <v>626</v>
+      </c>
+      <c r="D191" t="s">
+        <v>627</v>
+      </c>
+      <c r="E191" t="s">
+        <v>628</v>
+      </c>
+      <c r="F191" t="s">
+        <v>629</v>
+      </c>
+      <c r="G191">
+        <v>56</v>
+      </c>
+      <c r="H191" t="s">
+        <v>687</v>
+      </c>
+      <c r="I191" t="s">
+        <v>823</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>3540</v>
+      </c>
+      <c r="B192" t="s">
+        <v>630</v>
+      </c>
+      <c r="C192" t="s">
+        <v>631</v>
+      </c>
+      <c r="D192" t="s">
+        <v>632</v>
+      </c>
+      <c r="E192" t="s">
+        <v>633</v>
+      </c>
+      <c r="F192" t="s">
+        <v>634</v>
+      </c>
+      <c r="G192">
+        <v>56</v>
+      </c>
+      <c r="H192" t="s">
+        <v>687</v>
+      </c>
+      <c r="I192" t="s">
+        <v>825</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>3541</v>
+      </c>
+      <c r="B193" t="s">
+        <v>635</v>
+      </c>
+      <c r="C193" t="s">
+        <v>636</v>
+      </c>
+      <c r="D193" t="s">
+        <v>637</v>
+      </c>
+      <c r="E193" t="s">
+        <v>638</v>
+      </c>
+      <c r="F193" t="s">
+        <v>639</v>
+      </c>
+      <c r="G193">
+        <v>56</v>
+      </c>
+      <c r="H193" t="s">
+        <v>687</v>
+      </c>
+      <c r="I193" t="s">
+        <v>825</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>3542</v>
+      </c>
+      <c r="B194" t="s">
+        <v>640</v>
+      </c>
+      <c r="C194" t="s">
+        <v>641</v>
+      </c>
+      <c r="D194" t="s">
+        <v>643</v>
+      </c>
+      <c r="E194" t="s">
+        <v>644</v>
+      </c>
+      <c r="F194" t="s">
+        <v>642</v>
+      </c>
+      <c r="G194">
+        <v>56</v>
+      </c>
+      <c r="H194" t="s">
+        <v>687</v>
+      </c>
+      <c r="I194" t="s">
+        <v>826</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>3543</v>
+      </c>
+      <c r="B195" t="s">
+        <v>645</v>
+      </c>
+      <c r="C195" t="s">
+        <v>646</v>
+      </c>
+      <c r="D195" t="s">
+        <v>647</v>
+      </c>
+      <c r="E195" t="s">
+        <v>648</v>
+      </c>
+      <c r="F195" t="s">
+        <v>649</v>
+      </c>
+      <c r="G195">
+        <v>56</v>
+      </c>
+      <c r="H195" t="s">
+        <v>687</v>
+      </c>
+      <c r="I195" t="s">
+        <v>827</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>3544</v>
+      </c>
+      <c r="B196" t="s">
+        <v>650</v>
+      </c>
+      <c r="C196" t="s">
+        <v>651</v>
+      </c>
+      <c r="D196" t="s">
+        <v>652</v>
+      </c>
+      <c r="E196" t="s">
+        <v>653</v>
+      </c>
+      <c r="F196" t="s">
+        <v>654</v>
+      </c>
+      <c r="G196">
+        <v>56</v>
+      </c>
+      <c r="H196" t="s">
+        <v>687</v>
+      </c>
+      <c r="I196" t="s">
+        <v>823</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>3545</v>
+      </c>
+      <c r="B197" t="s">
+        <v>655</v>
+      </c>
+      <c r="C197" t="s">
+        <v>656</v>
+      </c>
+      <c r="D197" t="s">
+        <v>657</v>
+      </c>
+      <c r="E197" t="s">
+        <v>658</v>
+      </c>
+      <c r="F197" t="s">
+        <v>659</v>
+      </c>
+      <c r="G197">
+        <v>56</v>
+      </c>
+      <c r="H197" t="s">
+        <v>687</v>
+      </c>
+      <c r="I197" t="s">
+        <v>823</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>3546</v>
+      </c>
+      <c r="B198" t="s">
+        <v>660</v>
+      </c>
+      <c r="C198" t="s">
+        <v>661</v>
+      </c>
+      <c r="D198" t="s">
+        <v>662</v>
+      </c>
+      <c r="E198" t="s">
+        <v>663</v>
+      </c>
+      <c r="F198" t="s">
+        <v>664</v>
+      </c>
+      <c r="G198">
+        <v>56</v>
+      </c>
+      <c r="H198" t="s">
+        <v>687</v>
+      </c>
+      <c r="I198" t="s">
+        <v>825</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>3547</v>
+      </c>
+      <c r="B199" t="s">
+        <v>665</v>
+      </c>
+      <c r="C199" t="s">
+        <v>119</v>
+      </c>
+      <c r="D199" t="s">
+        <v>122</v>
+      </c>
+      <c r="E199" t="s">
+        <v>94</v>
+      </c>
+      <c r="F199" t="s">
+        <v>114</v>
+      </c>
+      <c r="G199">
+        <v>56</v>
+      </c>
+      <c r="H199" t="s">
+        <v>687</v>
+      </c>
+      <c r="I199" t="s">
+        <v>825</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>3548</v>
+      </c>
+      <c r="B200" t="s">
+        <v>667</v>
+      </c>
+      <c r="C200" t="s">
+        <v>345</v>
+      </c>
+      <c r="D200" t="s">
+        <v>299</v>
+      </c>
+      <c r="E200" t="s">
+        <v>346</v>
+      </c>
+      <c r="F200" t="s">
+        <v>55</v>
+      </c>
+      <c r="G200">
+        <v>56</v>
+      </c>
+      <c r="H200" t="s">
+        <v>687</v>
+      </c>
+      <c r="I200" t="s">
+        <v>825</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>3549</v>
+      </c>
+      <c r="B201" t="s">
+        <v>668</v>
+      </c>
+      <c r="C201" t="s">
+        <v>53</v>
+      </c>
+      <c r="D201" t="s">
+        <v>299</v>
+      </c>
+      <c r="E201" t="s">
+        <v>54</v>
+      </c>
+      <c r="F201" t="s">
+        <v>297</v>
+      </c>
+      <c r="G201">
+        <v>56</v>
+      </c>
+      <c r="H201" t="s">
+        <v>687</v>
+      </c>
+      <c r="I201" t="s">
+        <v>825</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>3550</v>
+      </c>
+      <c r="B202" t="s">
+        <v>669</v>
+      </c>
+      <c r="C202" t="s">
+        <v>344</v>
+      </c>
+      <c r="D202" t="s">
+        <v>670</v>
+      </c>
+      <c r="E202" t="s">
+        <v>671</v>
+      </c>
+      <c r="F202" t="s">
+        <v>672</v>
+      </c>
+      <c r="G202">
+        <v>56</v>
+      </c>
+      <c r="H202" t="s">
+        <v>687</v>
+      </c>
+      <c r="I202" t="s">
+        <v>825</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>3551</v>
+      </c>
+      <c r="B203" t="s">
+        <v>673</v>
+      </c>
+      <c r="C203" t="s">
+        <v>592</v>
+      </c>
+      <c r="D203" t="s">
+        <v>670</v>
+      </c>
+      <c r="E203" t="s">
+        <v>121</v>
+      </c>
+      <c r="F203" t="s">
+        <v>119</v>
+      </c>
+      <c r="G203">
+        <v>56</v>
+      </c>
+      <c r="H203" t="s">
+        <v>687</v>
+      </c>
+      <c r="I203" t="s">
+        <v>825</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>3552</v>
+      </c>
+      <c r="B204" t="s">
+        <v>674</v>
+      </c>
+      <c r="C204" t="s">
+        <v>120</v>
+      </c>
+      <c r="D204" t="s">
+        <v>671</v>
+      </c>
+      <c r="E204" t="s">
+        <v>344</v>
+      </c>
+      <c r="F204" t="s">
+        <v>118</v>
+      </c>
+      <c r="G204">
+        <v>56</v>
+      </c>
+      <c r="H204" t="s">
+        <v>687</v>
+      </c>
+      <c r="I204" t="s">
+        <v>825</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>3553</v>
+      </c>
+      <c r="B205" t="s">
+        <v>675</v>
+      </c>
+      <c r="C205" t="s">
+        <v>118</v>
+      </c>
+      <c r="D205" t="s">
+        <v>670</v>
+      </c>
+      <c r="E205" t="s">
+        <v>344</v>
+      </c>
+      <c r="F205" t="s">
+        <v>120</v>
+      </c>
+      <c r="G205">
+        <v>56</v>
+      </c>
+      <c r="H205" t="s">
+        <v>687</v>
+      </c>
+      <c r="I205" t="s">
+        <v>825</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>3554</v>
+      </c>
+      <c r="B206" t="s">
+        <v>677</v>
+      </c>
+      <c r="C206" t="s">
+        <v>119</v>
+      </c>
+      <c r="D206" t="s">
+        <v>118</v>
+      </c>
+      <c r="E206" t="s">
+        <v>221</v>
+      </c>
+      <c r="F206" t="s">
+        <v>120</v>
+      </c>
+      <c r="G206">
+        <v>56</v>
+      </c>
+      <c r="H206" t="s">
+        <v>687</v>
+      </c>
+      <c r="I206" t="s">
+        <v>823</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>3555</v>
+      </c>
+      <c r="B207" t="s">
+        <v>678</v>
+      </c>
+      <c r="C207" t="s">
+        <v>679</v>
+      </c>
+      <c r="D207" t="s">
+        <v>680</v>
+      </c>
+      <c r="E207" t="s">
+        <v>681</v>
+      </c>
+      <c r="F207" t="s">
+        <v>682</v>
+      </c>
+      <c r="G207">
+        <v>56</v>
+      </c>
+      <c r="H207" t="s">
+        <v>687</v>
+      </c>
+      <c r="I207" t="s">
+        <v>828</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>3556</v>
+      </c>
+      <c r="B208" t="s">
+        <v>683</v>
+      </c>
+      <c r="C208" t="s">
+        <v>121</v>
+      </c>
+      <c r="D208" t="s">
+        <v>344</v>
+      </c>
+      <c r="E208" t="s">
+        <v>221</v>
+      </c>
+      <c r="F208" t="s">
+        <v>119</v>
+      </c>
+      <c r="G208">
+        <v>56</v>
+      </c>
+      <c r="H208" t="s">
+        <v>687</v>
+      </c>
+      <c r="I208" t="s">
+        <v>829</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>3557</v>
+      </c>
+      <c r="B209" t="s">
+        <v>684</v>
+      </c>
+      <c r="C209" t="s">
+        <v>681</v>
+      </c>
+      <c r="D209" t="s">
+        <v>685</v>
+      </c>
+      <c r="E209" t="s">
+        <v>682</v>
+      </c>
+      <c r="F209" t="s">
+        <v>686</v>
+      </c>
+      <c r="G209">
+        <v>56</v>
+      </c>
+      <c r="H209" t="s">
+        <v>687</v>
+      </c>
+      <c r="I209" t="s">
+        <v>830</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>3558</v>
+      </c>
+      <c r="B210" t="s">
+        <v>548</v>
+      </c>
+      <c r="G210">
+        <v>56</v>
+      </c>
+      <c r="H210" t="s">
+        <v>701</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>3559</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211">
+        <v>56</v>
+      </c>
+      <c r="H211" t="s">
+        <v>701</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>3560</v>
+      </c>
+      <c r="B212" t="s">
+        <v>694</v>
+      </c>
+      <c r="G212">
+        <v>56</v>
+      </c>
+      <c r="H212" t="s">
+        <v>701</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>3561</v>
+      </c>
+      <c r="B213" t="s">
+        <v>16</v>
+      </c>
+      <c r="G213">
+        <v>56</v>
+      </c>
+      <c r="H213" t="s">
+        <v>701</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>3562</v>
+      </c>
+      <c r="B214" t="s">
+        <v>695</v>
+      </c>
+      <c r="G214">
+        <v>56</v>
+      </c>
+      <c r="H214" t="s">
+        <v>701</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>3563</v>
+      </c>
+      <c r="B215" t="s">
+        <v>135</v>
+      </c>
+      <c r="G215">
+        <v>56</v>
+      </c>
+      <c r="H215" t="s">
+        <v>701</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>3564</v>
+      </c>
+      <c r="B216" t="s">
+        <v>136</v>
+      </c>
+      <c r="G216">
+        <v>56</v>
+      </c>
+      <c r="H216" t="s">
+        <v>701</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>3565</v>
+      </c>
+      <c r="B217" t="s">
+        <v>161</v>
+      </c>
+      <c r="G217">
+        <v>56</v>
+      </c>
+      <c r="H217" t="s">
+        <v>701</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>3566</v>
+      </c>
+      <c r="B218" t="s">
+        <v>137</v>
+      </c>
+      <c r="G218">
+        <v>56</v>
+      </c>
+      <c r="H218" t="s">
+        <v>701</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>3567</v>
+      </c>
+      <c r="B219" t="s">
+        <v>696</v>
+      </c>
+      <c r="G219">
+        <v>56</v>
+      </c>
+      <c r="H219" t="s">
+        <v>701</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>3568</v>
+      </c>
+      <c r="B220" t="s">
+        <v>198</v>
+      </c>
+      <c r="G220">
+        <v>56</v>
+      </c>
+      <c r="H220" t="s">
+        <v>701</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>3569</v>
+      </c>
+      <c r="B221" t="s">
+        <v>199</v>
+      </c>
+      <c r="G221">
+        <v>56</v>
+      </c>
+      <c r="H221" t="s">
+        <v>701</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>3570</v>
+      </c>
+      <c r="B222" t="s">
+        <v>200</v>
+      </c>
+      <c r="G222">
+        <v>56</v>
+      </c>
+      <c r="H222" t="s">
+        <v>701</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>3571</v>
+      </c>
+      <c r="B223" t="s">
+        <v>201</v>
+      </c>
+      <c r="G223">
+        <v>56</v>
+      </c>
+      <c r="H223" t="s">
+        <v>701</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>3572</v>
+      </c>
+      <c r="B224" t="s">
+        <v>697</v>
+      </c>
+      <c r="G224">
+        <v>56</v>
+      </c>
+      <c r="H224" t="s">
+        <v>701</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>3573</v>
+      </c>
+      <c r="B225" t="s">
+        <v>698</v>
+      </c>
+      <c r="G225">
+        <v>56</v>
+      </c>
+      <c r="H225" t="s">
+        <v>701</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>3574</v>
+      </c>
+      <c r="B226" t="s">
+        <v>699</v>
+      </c>
+      <c r="G226">
+        <v>56</v>
+      </c>
+      <c r="H226" t="s">
+        <v>701</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>3575</v>
+      </c>
+      <c r="B227" t="s">
+        <v>700</v>
+      </c>
+      <c r="G227">
+        <v>56</v>
+      </c>
+      <c r="H227" t="s">
+        <v>701</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>3576</v>
+      </c>
+      <c r="B228" t="s">
+        <v>702</v>
+      </c>
+      <c r="G228">
+        <v>56</v>
+      </c>
+      <c r="H228" t="s">
+        <v>716</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>3577</v>
+      </c>
+      <c r="B229" t="s">
+        <v>703</v>
+      </c>
+      <c r="G229">
+        <v>56</v>
+      </c>
+      <c r="H229" t="s">
+        <v>716</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>3578</v>
+      </c>
+      <c r="B230" t="s">
+        <v>704</v>
+      </c>
+      <c r="G230">
+        <v>56</v>
+      </c>
+      <c r="H230" t="s">
+        <v>716</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>3579</v>
+      </c>
+      <c r="B231" t="s">
+        <v>705</v>
+      </c>
+      <c r="G231">
+        <v>56</v>
+      </c>
+      <c r="H231" t="s">
+        <v>716</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>3580</v>
+      </c>
+      <c r="B232" t="s">
+        <v>706</v>
+      </c>
+      <c r="G232">
+        <v>56</v>
+      </c>
+      <c r="H232" t="s">
+        <v>716</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>3581</v>
+      </c>
+      <c r="B233" t="s">
+        <v>707</v>
+      </c>
+      <c r="G233">
+        <v>56</v>
+      </c>
+      <c r="H233" t="s">
+        <v>716</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>3582</v>
+      </c>
+      <c r="B234" t="s">
+        <v>708</v>
+      </c>
+      <c r="G234">
+        <v>56</v>
+      </c>
+      <c r="H234" t="s">
+        <v>716</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3583</v>
+      </c>
+      <c r="B235" t="s">
+        <v>709</v>
+      </c>
+      <c r="G235">
+        <v>56</v>
+      </c>
+      <c r="H235" t="s">
+        <v>716</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>3584</v>
+      </c>
+      <c r="B236" t="s">
+        <v>710</v>
+      </c>
+      <c r="G236">
+        <v>56</v>
+      </c>
+      <c r="H236" t="s">
+        <v>716</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>3585</v>
+      </c>
+      <c r="B237" t="s">
+        <v>711</v>
+      </c>
+      <c r="G237">
+        <v>56</v>
+      </c>
+      <c r="H237" t="s">
+        <v>716</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>3586</v>
+      </c>
+      <c r="B238" t="s">
+        <v>712</v>
+      </c>
+      <c r="G238">
+        <v>56</v>
+      </c>
+      <c r="H238" t="s">
+        <v>716</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>3587</v>
+      </c>
+      <c r="B239" t="s">
+        <v>713</v>
+      </c>
+      <c r="G239">
+        <v>56</v>
+      </c>
+      <c r="H239" t="s">
+        <v>716</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>3588</v>
+      </c>
+      <c r="B240" t="s">
+        <v>714</v>
+      </c>
+      <c r="G240">
+        <v>56</v>
+      </c>
+      <c r="H240" t="s">
+        <v>716</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>3589</v>
+      </c>
+      <c r="B241" t="s">
+        <v>715</v>
+      </c>
+      <c r="G241">
+        <v>56</v>
+      </c>
+      <c r="H241" t="s">
+        <v>716</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>3590</v>
+      </c>
+      <c r="B242" t="s">
+        <v>717</v>
+      </c>
+      <c r="G242">
+        <v>56</v>
+      </c>
+      <c r="H242" t="s">
+        <v>716</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>3591</v>
+      </c>
+      <c r="B243" t="s">
+        <v>718</v>
+      </c>
+      <c r="G243">
+        <v>56</v>
+      </c>
+      <c r="H243" t="s">
+        <v>716</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+      <c r="K243" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>3592</v>
+      </c>
+      <c r="B244" t="s">
+        <v>719</v>
+      </c>
+      <c r="G244">
+        <v>56</v>
+      </c>
+      <c r="H244" t="s">
+        <v>716</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>3593</v>
+      </c>
+      <c r="B245" t="s">
+        <v>720</v>
+      </c>
+      <c r="G245">
+        <v>56</v>
+      </c>
+      <c r="H245" t="s">
+        <v>716</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>3594</v>
+      </c>
+      <c r="B246" t="s">
+        <v>721</v>
+      </c>
+      <c r="G246">
+        <v>56</v>
+      </c>
+      <c r="H246" t="s">
+        <v>716</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>3595</v>
+      </c>
+      <c r="B247" t="s">
+        <v>722</v>
+      </c>
+      <c r="G247">
+        <v>56</v>
+      </c>
+      <c r="H247" t="s">
+        <v>716</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>3596</v>
+      </c>
+      <c r="B248" t="s">
+        <v>723</v>
+      </c>
+      <c r="G248">
+        <v>56</v>
+      </c>
+      <c r="H248" t="s">
+        <v>716</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>3597</v>
+      </c>
+      <c r="B249" t="s">
+        <v>724</v>
+      </c>
+      <c r="G249">
+        <v>56</v>
+      </c>
+      <c r="H249" t="s">
+        <v>716</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>3598</v>
+      </c>
+      <c r="B250" t="s">
+        <v>725</v>
+      </c>
+      <c r="G250">
+        <v>56</v>
+      </c>
+      <c r="H250" t="s">
+        <v>716</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>3599</v>
+      </c>
+      <c r="B251" t="s">
+        <v>726</v>
+      </c>
+      <c r="G251">
+        <v>56</v>
+      </c>
+      <c r="H251" t="s">
+        <v>716</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>3600</v>
+      </c>
+      <c r="B252" t="s">
+        <v>727</v>
+      </c>
+      <c r="G252">
+        <v>56</v>
+      </c>
+      <c r="H252" t="s">
+        <v>716</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>3601</v>
+      </c>
+      <c r="B253" t="s">
+        <v>728</v>
+      </c>
+      <c r="G253">
+        <v>56</v>
+      </c>
+      <c r="H253" t="s">
+        <v>716</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3602</v>
+      </c>
+      <c r="B254" t="s">
+        <v>767</v>
+      </c>
+      <c r="G254">
+        <v>56</v>
+      </c>
+      <c r="H254" t="s">
+        <v>716</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>3603</v>
+      </c>
+      <c r="B255" t="s">
+        <v>774</v>
+      </c>
+      <c r="G255">
+        <v>56</v>
+      </c>
+      <c r="H255" t="s">
+        <v>716</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+      <c r="K255" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>3604</v>
+      </c>
+      <c r="B256" t="s">
+        <v>775</v>
+      </c>
+      <c r="G256">
+        <v>56</v>
+      </c>
+      <c r="H256" t="s">
+        <v>716</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+      <c r="K256" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>3605</v>
+      </c>
+      <c r="B257" t="s">
+        <v>776</v>
+      </c>
+      <c r="G257">
+        <v>56</v>
+      </c>
+      <c r="H257" t="s">
+        <v>716</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>3606</v>
+      </c>
+      <c r="B258" t="s">
+        <v>777</v>
+      </c>
+      <c r="G258">
+        <v>56</v>
+      </c>
+      <c r="H258" t="s">
+        <v>716</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>3607</v>
+      </c>
+      <c r="B259" t="s">
+        <v>778</v>
+      </c>
+      <c r="G259">
+        <v>56</v>
+      </c>
+      <c r="H259" t="s">
+        <v>716</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>3608</v>
+      </c>
+      <c r="B260" t="s">
+        <v>779</v>
+      </c>
+      <c r="G260">
+        <v>56</v>
+      </c>
+      <c r="H260" t="s">
+        <v>716</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="K260" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>3609</v>
+      </c>
+      <c r="B261" t="s">
+        <v>780</v>
+      </c>
+      <c r="G261">
+        <v>56</v>
+      </c>
+      <c r="H261" t="s">
+        <v>716</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>3610</v>
+      </c>
+      <c r="B262" t="s">
+        <v>781</v>
+      </c>
+      <c r="G262">
+        <v>56</v>
+      </c>
+      <c r="H262" t="s">
+        <v>716</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>3611</v>
+      </c>
+      <c r="B263" t="s">
+        <v>782</v>
+      </c>
+      <c r="G263">
+        <v>56</v>
+      </c>
+      <c r="H263" t="s">
+        <v>716</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>3612</v>
+      </c>
+      <c r="B264" t="s">
+        <v>783</v>
+      </c>
+      <c r="G264">
+        <v>56</v>
+      </c>
+      <c r="H264" t="s">
+        <v>716</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>3613</v>
+      </c>
+      <c r="B265" t="s">
+        <v>784</v>
+      </c>
+      <c r="G265">
+        <v>56</v>
+      </c>
+      <c r="H265" t="s">
+        <v>716</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265" t="s">
+        <v>794</v>
       </c>
     </row>
   </sheetData>
